--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD85AC-DBB6-409B-9661-A46E0B2F7B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1A808D-F585-478A-A844-FC1FB57DA140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="244">
   <si>
     <t>Albania</t>
   </si>
@@ -70,21 +70,12 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>Growth Rate real GDP per capita</t>
-  </si>
-  <si>
     <t>Real GDP per capita</t>
   </si>
   <si>
-    <t>Growth rate population</t>
-  </si>
-  <si>
     <t>Gross fixed capital formation</t>
   </si>
   <si>
-    <t>Lifelong learning</t>
-  </si>
-  <si>
     <t>% pop by education level</t>
   </si>
   <si>
@@ -94,24 +85,9 @@
     <t>Human resources in science and technology</t>
   </si>
   <si>
-    <t>Share NACE</t>
-  </si>
-  <si>
-    <t>Employement rate by education level</t>
-  </si>
-  <si>
-    <t>Unemployement rate by education level</t>
-  </si>
-  <si>
     <t>Activity rate by education level</t>
   </si>
   <si>
-    <t>Employement rate</t>
-  </si>
-  <si>
-    <t>Activity rate</t>
-  </si>
-  <si>
     <t>Website firms</t>
   </si>
   <si>
@@ -640,12 +616,6 @@
     <t>Main Variable</t>
   </si>
   <si>
-    <t>Subsets</t>
-  </si>
-  <si>
-    <t>Time Period</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -674,6 +644,132 @@
   </si>
   <si>
     <t>CBCG</t>
+  </si>
+  <si>
+    <t>Time frame</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>2000/2005</t>
+  </si>
+  <si>
+    <t>2006/2009</t>
+  </si>
+  <si>
+    <t>Population NUTS2</t>
+  </si>
+  <si>
+    <t>2010/2013</t>
+  </si>
+  <si>
+    <t>Fertility Rate</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Life expectancy</t>
+  </si>
+  <si>
+    <t>Gross Added Value</t>
+  </si>
+  <si>
+    <t>Compensation Employees</t>
+  </si>
+  <si>
+    <t>NEET</t>
+  </si>
+  <si>
+    <t>Employement in high technology sectors</t>
+  </si>
+  <si>
+    <t>Economically active population</t>
+  </si>
+  <si>
+    <t>Economic activity rate</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Avergae number of working hours</t>
+  </si>
+  <si>
+    <t>Employement by edu</t>
+  </si>
+  <si>
+    <t>Police recorded offences</t>
+  </si>
+  <si>
+    <t>Unemployement by edu</t>
+  </si>
+  <si>
+    <t>Employement by NACE</t>
+  </si>
+  <si>
+    <t>Transport network</t>
+  </si>
+  <si>
+    <t>Some type of trade agreement EU</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>X Eurostat</t>
+  </si>
+  <si>
+    <t>o Wiiw</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>FDI_partner</t>
+  </si>
+  <si>
+    <t>GED</t>
+  </si>
+  <si>
+    <t>gross fixed investment by nace</t>
+  </si>
+  <si>
+    <t>GVA by NACE</t>
+  </si>
+  <si>
+    <t>Interets rate</t>
+  </si>
+  <si>
+    <t>Employement/unemployment rate</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>ppp</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Wages</t>
   </si>
 </sst>
 </file>
@@ -711,15 +807,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -789,18 +915,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +976,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1133,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEBABFD-CDF2-4C41-B705-2A0DD7A6C02F}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,121 +1334,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>43</v>
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="9">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8">
         <f>COUNTA(A2:A77 )</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
+      <c r="A4" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="11">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="10">
         <f>COUNTA(B2:B77 )</f>
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,36 +1459,36 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="17"/>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,581 +1499,581 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" t="s">
         <v>148</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C63" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" t="s">
         <v>149</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C64" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" t="s">
         <v>150</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C65" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" t="s">
         <v>151</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C66" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" t="s">
         <v>152</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C67" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" t="s">
         <v>153</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C68" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" t="s">
         <v>154</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C69" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" t="s">
         <v>155</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C70" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" t="s">
         <v>156</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C71" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" t="s">
         <v>157</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C72" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" t="s">
         <v>158</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C73" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" t="s">
         <v>159</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C74" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" t="s">
         <v>160</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" t="s">
         <v>161</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" t="s">
         <v>162</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C77" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A54:A77"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="A28:A53"/>
-    <mergeCell ref="A54:A77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1892,559 +2081,2372 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19BF3E-7EEF-423C-8D22-BB79E99E3E18}">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:13" s="16" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>209</v>
+        <v>203</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="21" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>209</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="M3" s="22" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="M4" s="23" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="M5" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>210</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="M6" s="25" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="M11" s="20" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="16"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A88:A111"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A62:A87"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2456,7 +4458,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,42 +4469,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>211</v>
+      <c r="B9" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2515,6 +4517,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DFD4858E290079428C5BFDA89E3AFED2" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ab1f7d3ec611606aaa043637b029a9c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2543e569-627a-4d03-b3be-15316f64362a" xmlns:ns4="b210fc11-311b-43ed-b87e-a5b89f2d6a52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf709b8e585f3065e57ca2c406dca2bc" ns3:_="" ns4:_="">
     <xsd:import namespace="2543e569-627a-4d03-b3be-15316f64362a"/>
@@ -2703,24 +4722,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29E9CDEC-EEEF-4227-8ABE-AAED908B81F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2737,29 +4764,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1A808D-F585-478A-A844-FC1FB57DA140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701390F8-B322-4499-9465-C04501577875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="279">
   <si>
     <t>Albania</t>
   </si>
@@ -88,15 +88,6 @@
     <t>Activity rate by education level</t>
   </si>
   <si>
-    <t>Website firms</t>
-  </si>
-  <si>
-    <t>telecomunnications firms</t>
-  </si>
-  <si>
-    <t>region with seaports</t>
-  </si>
-  <si>
     <t>airport density</t>
   </si>
   <si>
@@ -709,18 +700,12 @@
     <t>Employement by NACE</t>
   </si>
   <si>
-    <t>Transport network</t>
-  </si>
-  <si>
     <t>Some type of trade agreement EU</t>
   </si>
   <si>
     <t>Sources</t>
   </si>
   <si>
-    <t>X Eurostat</t>
-  </si>
-  <si>
     <t>o Wiiw</t>
   </si>
   <si>
@@ -770,6 +755,126 @@
   </si>
   <si>
     <t>Wages</t>
+  </si>
+  <si>
+    <t>v National</t>
+  </si>
+  <si>
+    <t>x Eurostat</t>
+  </si>
+  <si>
+    <t>o / v</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>z Ardeco</t>
+  </si>
+  <si>
+    <t>♥</t>
+  </si>
+  <si>
+    <t>Population Average</t>
+  </si>
+  <si>
+    <t>Population 1 january</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>GDP 2015</t>
+  </si>
+  <si>
+    <t>GVA</t>
+  </si>
+  <si>
+    <t>GVA 2015</t>
+  </si>
+  <si>
+    <t>GVA NACE</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Also available EUR2015</t>
+  </si>
+  <si>
+    <t>GVA A</t>
+  </si>
+  <si>
+    <t>GVA B-E</t>
+  </si>
+  <si>
+    <t>GVA F</t>
+  </si>
+  <si>
+    <t>GVA G-J</t>
+  </si>
+  <si>
+    <t>GVA K-N</t>
+  </si>
+  <si>
+    <t>GVA O -U</t>
+  </si>
+  <si>
+    <t>♥ Ardeco</t>
+  </si>
+  <si>
+    <t>per capita</t>
+  </si>
+  <si>
+    <t>growth rate</t>
+  </si>
+  <si>
+    <t>Total Employment</t>
+  </si>
+  <si>
+    <t>Employement NACE</t>
+  </si>
+  <si>
+    <t>Total Labour Force</t>
+  </si>
+  <si>
+    <t>Employement A</t>
+  </si>
+  <si>
+    <t>Employement B-E</t>
+  </si>
+  <si>
+    <t>Employement F</t>
+  </si>
+  <si>
+    <t>Employement G-J</t>
+  </si>
+  <si>
+    <t>Employement K- N</t>
+  </si>
+  <si>
+    <t>Employement O -U</t>
+  </si>
+  <si>
+    <t>Also available hours worked</t>
+  </si>
+  <si>
+    <t>Hours Worked</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Also available in EUR2015</t>
+  </si>
+  <si>
+    <t>Labour cost based on person</t>
+  </si>
+  <si>
+    <t>Also based on hours worked</t>
   </si>
 </sst>
 </file>
@@ -807,7 +912,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +946,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,9 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1004,7 +1124,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1323,7 +1473,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,42 +1485,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8">
         <f>COUNTA(A2:A77 )</f>
@@ -1378,17 +1528,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>44</v>
+      <c r="A4" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4" s="10">
         <f>COUNTA(B2:B77 )</f>
@@ -1396,59 +1546,59 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="25"/>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,36 +1609,36 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="25"/>
       <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="25"/>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,571 +1649,571 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" t="s">
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
       <c r="C27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" t="s">
         <v>140</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" t="s">
         <v>141</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" t="s">
         <v>142</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" t="s">
         <v>143</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C61" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" t="s">
         <v>144</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" t="s">
         <v>145</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C63" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C64" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" t="s">
         <v>147</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C65" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" t="s">
         <v>148</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C66" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" t="s">
         <v>149</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C67" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" t="s">
         <v>150</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C68" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" t="s">
         <v>151</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C69" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" t="s">
         <v>152</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" t="s">
         <v>153</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" t="s">
         <v>154</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" t="s">
         <v>155</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C73" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" t="s">
         <v>156</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C74" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" t="s">
         <v>157</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" t="s">
         <v>158</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C76" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" t="s">
         <v>159</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C77" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2081,2372 +2231,3066 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19BF3E-7EEF-423C-8D22-BB79E99E3E18}">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="16" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B36" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="N39" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="21" t="s">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="N40" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="N41" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" s="13" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="N42" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="N43" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="N46" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="N47" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="N48" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="N49" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="N50" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L58" s="14"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L59" s="14"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L60" s="14"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="M3" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="M4" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="M5" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="M6" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B61" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="L61" s="14"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L64" s="14"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="M10" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="M11" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L68" s="14"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L69" s="14"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L70" s="14"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>239</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B17:F17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4469,42 +5313,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701390F8-B322-4499-9465-C04501577875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5654DA0C-C4B5-4E20-81E7-B5843542F2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="272">
   <si>
     <t>Albania</t>
   </si>
@@ -70,66 +70,12 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>Real GDP per capita</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation</t>
-  </si>
-  <si>
-    <t>% pop by education level</t>
-  </si>
-  <si>
     <t>Number of patents total and share</t>
   </si>
   <si>
     <t>Human resources in science and technology</t>
   </si>
   <si>
-    <t>Activity rate by education level</t>
-  </si>
-  <si>
-    <t>airport density</t>
-  </si>
-  <si>
-    <t>road density</t>
-  </si>
-  <si>
-    <t>rail density</t>
-  </si>
-  <si>
-    <t>connectivity</t>
-  </si>
-  <si>
-    <t>output intensity (GDP/area)</t>
-  </si>
-  <si>
-    <t>employement density</t>
-  </si>
-  <si>
-    <t>population density</t>
-  </si>
-  <si>
-    <t>coastal</t>
-  </si>
-  <si>
-    <t>capital city</t>
-  </si>
-  <si>
-    <t>number of airports</t>
-  </si>
-  <si>
-    <t>distance to capital</t>
-  </si>
-  <si>
-    <t>distance to closest eu capital</t>
-  </si>
-  <si>
-    <t>distance to Bruxelles</t>
-  </si>
-  <si>
-    <t>temperatures</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -649,9 +595,6 @@
     <t>2006/2009</t>
   </si>
   <si>
-    <t>Population NUTS2</t>
-  </si>
-  <si>
     <t>2010/2013</t>
   </si>
   <si>
@@ -664,12 +607,6 @@
     <t>Life expectancy</t>
   </si>
   <si>
-    <t>Gross Added Value</t>
-  </si>
-  <si>
-    <t>Compensation Employees</t>
-  </si>
-  <si>
     <t>NEET</t>
   </si>
   <si>
@@ -682,24 +619,12 @@
     <t>Economic activity rate</t>
   </si>
   <si>
-    <t>Employment</t>
-  </si>
-  <si>
-    <t>Avergae number of working hours</t>
-  </si>
-  <si>
     <t>Employement by edu</t>
   </si>
   <si>
     <t>Police recorded offences</t>
   </si>
   <si>
-    <t>Unemployement by edu</t>
-  </si>
-  <si>
-    <t>Employement by NACE</t>
-  </si>
-  <si>
     <t>Some type of trade agreement EU</t>
   </si>
   <si>
@@ -727,9 +652,6 @@
     <t>gross fixed investment by nace</t>
   </si>
   <si>
-    <t>GVA by NACE</t>
-  </si>
-  <si>
     <t>Interets rate</t>
   </si>
   <si>
@@ -763,18 +685,6 @@
     <t>x Eurostat</t>
   </si>
   <si>
-    <t>o / v</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>z Ardeco</t>
-  </si>
-  <si>
     <t>♥</t>
   </si>
   <si>
@@ -862,9 +772,6 @@
     <t>Also available hours worked</t>
   </si>
   <si>
-    <t>Hours Worked</t>
-  </si>
-  <si>
     <t>Wage</t>
   </si>
   <si>
@@ -875,13 +782,85 @@
   </si>
   <si>
     <t>Also based on hours worked</t>
+  </si>
+  <si>
+    <t>Labour Productivity per person</t>
+  </si>
+  <si>
+    <t>Also real or based on hours</t>
+  </si>
+  <si>
+    <t>Capital formation</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>% pop by education level and age</t>
+  </si>
+  <si>
+    <t>Economic activity rate by education</t>
+  </si>
+  <si>
+    <t>Road, rail networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for density</t>
+  </si>
+  <si>
+    <t>Airports</t>
+  </si>
+  <si>
+    <t>Average number of working hours</t>
+  </si>
+  <si>
+    <t>Unemployement (+ by edu brdw)</t>
+  </si>
+  <si>
+    <t>GERD</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Dummies</t>
+  </si>
+  <si>
+    <t>Distances</t>
+  </si>
+  <si>
+    <t>Temperatures</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
+    <t>Capital city</t>
+  </si>
+  <si>
+    <t>Region (WB - EXRU - MidEast)</t>
+  </si>
+  <si>
+    <t>Distance to capital</t>
+  </si>
+  <si>
+    <t>Distance to closest eu capital</t>
+  </si>
+  <si>
+    <t>Distance to Bruxelles</t>
+  </si>
+  <si>
+    <t>Border EU</t>
+  </si>
+  <si>
+    <t>Border</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,8 +890,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +951,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1124,17 +1117,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,18 +1129,66 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1485,42 +1520,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F3" s="8">
         <f>COUNTA(A2:A77 )</f>
@@ -1528,17 +1563,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>41</v>
+      <c r="A4" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F4" s="10">
         <f>COUNTA(B2:B77 )</f>
@@ -1546,59 +1581,59 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="35"/>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="35"/>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>45</v>
+      <c r="A7" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="35"/>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="35"/>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="35"/>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,36 +1644,36 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="35"/>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="35"/>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,571 +1684,571 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="35"/>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="35"/>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="35"/>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="35"/>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="35"/>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
+      <c r="B73" t="s">
         <v>137</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C73" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="35"/>
+      <c r="B74" t="s">
         <v>138</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C74" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
+      <c r="B75" t="s">
         <v>139</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C75" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="35"/>
+      <c r="B76" t="s">
         <v>140</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C76" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="35"/>
+      <c r="B77" t="s">
         <v>141</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C77" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
-      <c r="B67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
-      <c r="B69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
-      <c r="B70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
-      <c r="B71" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2231,11 +2266,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19BF3E-7EEF-423C-8D22-BB79E99E3E18}">
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2281,7 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="28" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -2255,9 +2290,9 @@
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2274,8 +2309,8 @@
       <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>253</v>
+      <c r="G1" s="27" t="s">
+        <v>223</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -2295,26 +2330,26 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>262</v>
+      <c r="A2" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2322,61 +2357,55 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="20" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" s="30"/>
+      <c r="A3" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="28"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>263</v>
+    </row>
+    <row r="4" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -2384,61 +2413,58 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="23" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="5" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="30"/>
+      <c r="A5" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>263</v>
+      <c r="N5" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2446,49 +2472,51 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="24" t="s">
-        <v>206</v>
+      <c r="N6" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="30"/>
+      <c r="A7" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="2"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="30" t="s">
-        <v>254</v>
+      <c r="N7" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -2496,244 +2524,253 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="2"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>245</v>
+      <c r="N8" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="28"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="17" t="s">
-        <v>221</v>
+      <c r="N9" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>245</v>
+      <c r="A10" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="28"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>245</v>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="18" t="s">
-        <v>222</v>
-      </c>
+      <c r="N11"/>
     </row>
     <row r="12" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>245</v>
+      <c r="A12" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="28"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>245</v>
+      <c r="N12" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="28"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="19" t="s">
-        <v>261</v>
+      <c r="N13" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>245</v>
+      <c r="A14" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="28"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="2"/>
+      <c r="N14" s="18" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" s="33"/>
+        <v>234</v>
+      </c>
+      <c r="B15" s="30"/>
       <c r="C15" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="28"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" s="34"/>
+        <v>236</v>
+      </c>
+      <c r="B16" s="31"/>
       <c r="C16" s="15" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="G16" s="28"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="2"/>
+      <c r="N16" s="19" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="17" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="30" t="s">
-        <v>273</v>
+      <c r="A17" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="28" t="s">
+        <v>243</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -2743,19 +2780,23 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="D18" s="13" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2764,19 +2805,23 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="D19" s="13" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="28"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2785,19 +2830,23 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="D20" s="13" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2806,19 +2855,23 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="D21" s="13" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G21" s="28"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2827,19 +2880,23 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="D22" s="13" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="28"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2848,19 +2905,23 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="D23" s="13" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="30"/>
+        <v>215</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="28"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2869,17 +2930,23 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="26" t="s">
+      <c r="A24" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="30"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2888,22 +2955,22 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30" t="s">
-        <v>276</v>
+      <c r="A25" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="28" t="s">
+        <v>247</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2913,22 +2980,22 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="30" t="s">
-        <v>278</v>
+      <c r="A26" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28" t="s">
+        <v>249</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2938,13 +3005,27 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="30"/>
+      <c r="A27" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>245</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2953,13 +3034,23 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="30"/>
+      <c r="A28" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" s="28"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2968,13 +3059,21 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="30"/>
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" s="28"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -2983,13 +3082,21 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="28"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -2997,1070 +3104,910 @@
       <c r="L30" s="3"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+    </row>
+    <row r="39" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="28"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+    </row>
+    <row r="45" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B52" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>205</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B54" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L39" s="14"/>
-      <c r="N39" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B56" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="N40" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="N41" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B57" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="N42" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="N43" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B58" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B59" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>211</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B60" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="N46" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>213</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="N47" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="N48" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="N49" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="N50" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>219</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>224</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>225</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>226</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L59" s="14"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>227</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>228</v>
-      </c>
       <c r="B61" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="L61" s="14"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>230</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>231</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>232</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L64" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>233</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L65" s="14"/>
+      <c r="A65" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L66" s="14"/>
+      <c r="A66" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>235</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L67" s="14"/>
+      <c r="A67" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L68" s="14"/>
+      <c r="A68" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>237</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L69" s="14"/>
+      <c r="A69" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>238</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L70" s="14"/>
+      <c r="A70" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4075,7 +4022,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4090,7 +4037,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4104,14 +4051,12 @@
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>19</v>
-      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
+      <c r="G74" s="43"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -4119,14 +4064,12 @@
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
+      <c r="G75" s="43"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4134,14 +4077,12 @@
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
+      <c r="G76" s="43"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -4149,14 +4090,12 @@
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
+      <c r="G77" s="43"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4164,14 +4103,12 @@
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
+      <c r="G78" s="43"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4179,14 +4116,13 @@
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A79" s="16"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
+      <c r="G79" s="43"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4194,14 +4130,13 @@
       <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
+      <c r="A80" s="16"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
+      <c r="G80" s="33"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4209,14 +4144,13 @@
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>26</v>
-      </c>
+      <c r="A81" s="16"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
+      <c r="G81" s="33"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4224,14 +4158,7 @@
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="G82" s="33"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4239,14 +4166,7 @@
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="G83" s="33"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -4254,14 +4174,7 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="G84" s="33"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -4269,14 +4182,7 @@
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="G85" s="33"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -4284,14 +4190,7 @@
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="G86" s="33"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -4305,6 +4204,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
+      <c r="G87" s="33"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -4318,6 +4218,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
+      <c r="G88" s="33"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -4331,6 +4232,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
+      <c r="G89" s="33"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -4344,6 +4246,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
+      <c r="G90" s="33"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -4357,6 +4260,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
+      <c r="G91" s="33"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -4370,6 +4274,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
+      <c r="G92" s="33"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -4383,6 +4288,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
+      <c r="G93" s="33"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -4396,6 +4302,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
+      <c r="G94" s="33"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -4409,6 +4316,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
+      <c r="G95" s="33"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -4422,6 +4330,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
+      <c r="G96" s="33"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -4435,6 +4344,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
+      <c r="G97" s="33"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -4448,6 +4358,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
+      <c r="G98" s="33"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -4461,6 +4372,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
+      <c r="G99" s="33"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -4474,6 +4386,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
+      <c r="G100" s="33"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -4487,6 +4400,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
+      <c r="G101" s="33"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -4500,6 +4414,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
+      <c r="G102" s="33"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -4513,6 +4428,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
+      <c r="G103" s="33"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -4526,6 +4442,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
+      <c r="G104" s="33"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4539,6 +4456,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
+      <c r="G105" s="33"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -4552,6 +4470,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
+      <c r="G106" s="33"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -4565,6 +4484,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
+      <c r="G107" s="33"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -4578,6 +4498,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
+      <c r="G108" s="33"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -4591,6 +4512,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
+      <c r="G109" s="33"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -4604,6 +4526,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
+      <c r="G110" s="33"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -4617,6 +4540,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
+      <c r="G111" s="33"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -4630,6 +4554,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
+      <c r="G112" s="33"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4643,6 +4568,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
+      <c r="G113" s="33"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -4656,6 +4582,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
+      <c r="G114" s="33"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -4669,6 +4596,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
+      <c r="G115" s="33"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4682,6 +4610,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
+      <c r="G116" s="33"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4695,6 +4624,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
+      <c r="G117" s="33"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4708,6 +4638,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
+      <c r="G118" s="33"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -4721,6 +4652,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
+      <c r="G119" s="33"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -4734,6 +4666,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
+      <c r="G120" s="33"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -4747,6 +4680,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
+      <c r="G121" s="33"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -4760,6 +4694,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
+      <c r="G122" s="33"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -4773,6 +4708,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
+      <c r="G123" s="33"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -4786,6 +4722,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
+      <c r="G124" s="33"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -4799,6 +4736,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
+      <c r="G125" s="33"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -4812,6 +4750,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
+      <c r="G126" s="33"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -4825,6 +4764,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
+      <c r="G127" s="33"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -4838,6 +4778,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
+      <c r="G128" s="33"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -4851,6 +4792,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
+      <c r="G129" s="33"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -4864,6 +4806,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
+      <c r="G130" s="33"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -4877,6 +4820,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
+      <c r="G131" s="33"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -4890,6 +4834,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
+      <c r="G132" s="33"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -4903,6 +4848,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
+      <c r="G133" s="33"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -4916,6 +4862,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
+      <c r="G134" s="33"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -4929,6 +4876,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
+      <c r="G135" s="33"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4942,6 +4890,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
+      <c r="G136" s="33"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -4955,6 +4904,7 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
+      <c r="G137" s="33"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -4968,6 +4918,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
+      <c r="G138" s="33"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -4981,6 +4932,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
+      <c r="G139" s="33"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -4994,6 +4946,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
+      <c r="G140" s="33"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -5007,6 +4960,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
+      <c r="G141" s="33"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -5020,6 +4974,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
+      <c r="G142" s="33"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -5033,6 +4988,7 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
+      <c r="G143" s="33"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -5046,6 +5002,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
+      <c r="G144" s="33"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -5059,6 +5016,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
+      <c r="G145" s="33"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -5072,6 +5030,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
+      <c r="G146" s="33"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -5085,6 +5044,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
+      <c r="G147" s="33"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -5098,6 +5058,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
+      <c r="G148" s="33"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -5111,6 +5072,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
+      <c r="G149" s="33"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -5124,6 +5086,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
+      <c r="G150" s="33"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -5137,6 +5100,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
+      <c r="G151" s="33"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -5150,6 +5114,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
+      <c r="G152" s="33"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -5163,6 +5128,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
+      <c r="G153" s="33"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -5176,6 +5142,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
+      <c r="G154" s="33"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -5189,6 +5156,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
+      <c r="G155" s="33"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -5202,6 +5170,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
+      <c r="G156" s="33"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -5215,6 +5184,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
+      <c r="G157" s="33"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -5228,6 +5198,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
+      <c r="G158" s="33"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -5241,50 +5212,12 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
+      <c r="G159" s="33"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5313,42 +5246,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB91B7-032D-4997-B2A2-958A59D33B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D73A8E-8EC4-43A6-A520-A1DEB05E8E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -43,6 +43,11 @@
     <author>tc={B7E71C5C-C4F8-4A7D-A23A-4249918D874D}</author>
     <author>tc={A440696A-8FBF-44CB-ACA8-73A2B1BE2A85}</author>
     <author>tc={1BF648E4-22D4-45B6-9EBB-F0CD4471AD7C}</author>
+    <author>tc={F2A473D3-543D-45B8-AF20-81FF2D86C488}</author>
+    <author>tc={5016BFA2-34DF-4282-9BE8-C6F627D2AE3E}</author>
+    <author>tc={EE5A5CAE-7AFD-47A5-A294-920C6BE72CEF}</author>
+    <author>tc={5ACF80A4-3273-4F9E-8727-538787B277A3}</author>
+    <author>tc={61876B84-F5DA-451B-998D-6C7D7286518F}</author>
   </authors>
   <commentList>
     <comment ref="E16" authorId="0" shapeId="0" xr:uid="{B7E71C5C-C4F8-4A7D-A23A-4249918D874D}">
@@ -69,12 +74,54 @@
     Homicide/robbery/burglary/theft (the last 2 consistent from 2012)</t>
       </text>
     </comment>
+    <comment ref="E41" authorId="3" shapeId="0" xr:uid="{F2A473D3-543D-45B8-AF20-81FF2D86C488}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Under Judicature if needed: PxWeb - Select table (stat.gov.mk) 
+</t>
+      </text>
+    </comment>
+    <comment ref="F49" authorId="4" shapeId="0" xr:uid="{5016BFA2-34DF-4282-9BE8-C6F627D2AE3E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Look up on national bank
+</t>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="5" shapeId="0" xr:uid="{EE5A5CAE-7AFD-47A5-A294-920C6BE72CEF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not nace but other classification let seee</t>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="6" shapeId="0" xr:uid="{5ACF80A4-3273-4F9E-8727-538787B277A3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Publications | Statistical Office of the Republic of Serbia </t>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="7" shapeId="0" xr:uid="{61876B84-F5DA-451B-998D-6C7D7286518F}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Publications | Statistical Office of the Republic of Serbia </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="292">
   <si>
     <t>Macedonia</t>
   </si>
@@ -919,9 +966,6 @@
     <t>Unemployement (+ by edu brdw) IN 1000</t>
   </si>
   <si>
-    <t>Available on EUSTAT from 2013 but I can do that myself</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -938,6 +982,21 @@
   </si>
   <si>
     <t>Albania AL</t>
+  </si>
+  <si>
+    <t>(v)</t>
+  </si>
+  <si>
+    <t>Consumption of fixed capital</t>
+  </si>
+  <si>
+    <t>per week</t>
+  </si>
+  <si>
+    <t>☺ Statista</t>
+  </si>
+  <si>
+    <t>☺</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1055,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,7 +1124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,7 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1315,8 +1380,23 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1330,16 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1678,6 +1749,41 @@
   <threadedComment ref="A41" dT="2024-04-20T20:20:13.06" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{1BF648E4-22D4-45B6-9EBB-F0CD4471AD7C}">
     <text>Homicide/robbery/burglary/theft (the last 2 consistent from 2012)</text>
   </threadedComment>
+  <threadedComment ref="E41" dT="2024-04-28T09:22:40.49" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{F2A473D3-543D-45B8-AF20-81FF2D86C488}">
+    <text xml:space="preserve">Under Judicature if needed: PxWeb - Select table (stat.gov.mk) 
+</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3550493559</xltc2:checksum>
+        <xltc2:hyperlink startIndex="28" length="34" url="https://makstat.stat.gov.mk/PXWeb/pxweb/en/MakStat/MakStat__Sudstvo"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="F49" dT="2024-04-27T17:35:46.47" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{5016BFA2-34DF-4282-9BE8-C6F627D2AE3E}">
+    <text xml:space="preserve">Look up on national bank
+</text>
+  </threadedComment>
+  <threadedComment ref="E51" dT="2024-04-27T17:03:05.70" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{EE5A5CAE-7AFD-47A5-A294-920C6BE72CEF}">
+    <text>Not nace but other classification let seee</text>
+  </threadedComment>
+  <threadedComment ref="F51" dT="2024-04-28T08:54:34.37" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{5ACF80A4-3273-4F9E-8727-538787B277A3}">
+    <text xml:space="preserve">Publications | Statistical Office of the Republic of Serbia </text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3133022975</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="59" url="https://www.stat.gov.rs/en-us/publikacije/?a=09&amp;s=090204&amp;d=&amp;r="/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="F53" dT="2024-04-28T08:56:24.22" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{61876B84-F5DA-451B-998D-6C7D7286518F}">
+    <text xml:space="preserve">Publications | Statistical Office of the Republic of Serbia </text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3133022975</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="59" url="https://www.stat.gov.rs/en-us/publikacije/?a=17&amp;s=&amp;d=&amp;r="/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1741,7 +1847,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
@@ -1759,7 +1865,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1768,7 +1874,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1777,7 +1883,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
@@ -1788,7 +1894,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -1797,7 +1903,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1912,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -1826,7 +1932,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -1837,7 +1943,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -1846,7 +1952,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" t="s">
         <v>60</v>
       </c>
@@ -1866,7 +1972,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -1877,7 +1983,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1886,7 +1992,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -1895,7 +2001,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1904,7 +2010,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -1913,7 +2019,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1922,7 +2028,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="59"/>
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -1931,7 +2037,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +2046,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1949,7 +2055,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -1958,7 +2064,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -1967,7 +2073,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -1976,7 +2082,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
@@ -1987,7 +2093,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" t="s">
         <v>66</v>
       </c>
@@ -1996,7 +2102,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="59"/>
       <c r="B30" t="s">
         <v>67</v>
       </c>
@@ -2005,7 +2111,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" t="s">
         <v>68</v>
       </c>
@@ -2014,7 +2120,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="59"/>
       <c r="B32" t="s">
         <v>69</v>
       </c>
@@ -2023,7 +2129,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" t="s">
         <v>70</v>
       </c>
@@ -2032,7 +2138,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="59"/>
       <c r="B34" t="s">
         <v>71</v>
       </c>
@@ -2041,7 +2147,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" t="s">
         <v>72</v>
       </c>
@@ -2050,7 +2156,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="59"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
@@ -2059,7 +2165,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="59"/>
       <c r="B37" t="s">
         <v>74</v>
       </c>
@@ -2068,7 +2174,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="59"/>
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -2077,7 +2183,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="59"/>
       <c r="B39" t="s">
         <v>76</v>
       </c>
@@ -2086,7 +2192,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" t="s">
         <v>77</v>
       </c>
@@ -2095,7 +2201,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="59"/>
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -2104,7 +2210,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="59"/>
       <c r="B42" t="s">
         <v>79</v>
       </c>
@@ -2113,7 +2219,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="59"/>
       <c r="B43" t="s">
         <v>80</v>
       </c>
@@ -2122,7 +2228,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="59"/>
       <c r="B44" t="s">
         <v>81</v>
       </c>
@@ -2131,7 +2237,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
@@ -2140,7 +2246,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2149,7 +2255,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="59"/>
       <c r="B47" t="s">
         <v>84</v>
       </c>
@@ -2158,7 +2264,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="59"/>
       <c r="B48" t="s">
         <v>85</v>
       </c>
@@ -2167,7 +2273,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="59"/>
       <c r="B49" t="s">
         <v>86</v>
       </c>
@@ -2176,7 +2282,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="59"/>
       <c r="B50" t="s">
         <v>87</v>
       </c>
@@ -2185,7 +2291,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="59"/>
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -2194,7 +2300,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="59"/>
       <c r="B52" t="s">
         <v>89</v>
       </c>
@@ -2203,7 +2309,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="59"/>
       <c r="B53" t="s">
         <v>90</v>
       </c>
@@ -2212,7 +2318,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
@@ -2223,7 +2329,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="59"/>
       <c r="B55" t="s">
         <v>118</v>
       </c>
@@ -2232,7 +2338,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="59"/>
       <c r="B56" t="s">
         <v>119</v>
       </c>
@@ -2241,7 +2347,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="59"/>
       <c r="B57" t="s">
         <v>120</v>
       </c>
@@ -2250,7 +2356,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="59"/>
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -2259,7 +2365,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
+      <c r="A59" s="59"/>
       <c r="B59" t="s">
         <v>122</v>
       </c>
@@ -2268,7 +2374,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
+      <c r="A60" s="59"/>
       <c r="B60" t="s">
         <v>123</v>
       </c>
@@ -2277,7 +2383,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
+      <c r="A61" s="59"/>
       <c r="B61" t="s">
         <v>124</v>
       </c>
@@ -2286,7 +2392,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="A62" s="59"/>
       <c r="B62" t="s">
         <v>125</v>
       </c>
@@ -2295,7 +2401,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
+      <c r="A63" s="59"/>
       <c r="B63" t="s">
         <v>126</v>
       </c>
@@ -2304,7 +2410,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
+      <c r="A64" s="59"/>
       <c r="B64" t="s">
         <v>127</v>
       </c>
@@ -2313,7 +2419,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
+      <c r="A65" s="59"/>
       <c r="B65" t="s">
         <v>128</v>
       </c>
@@ -2322,7 +2428,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="59"/>
       <c r="B66" t="s">
         <v>129</v>
       </c>
@@ -2331,7 +2437,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="59"/>
       <c r="B67" t="s">
         <v>130</v>
       </c>
@@ -2340,7 +2446,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
+      <c r="A68" s="59"/>
       <c r="B68" t="s">
         <v>131</v>
       </c>
@@ -2349,7 +2455,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
+      <c r="A69" s="59"/>
       <c r="B69" t="s">
         <v>132</v>
       </c>
@@ -2358,7 +2464,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
+      <c r="A70" s="59"/>
       <c r="B70" t="s">
         <v>133</v>
       </c>
@@ -2367,7 +2473,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="A71" s="59"/>
       <c r="B71" t="s">
         <v>134</v>
       </c>
@@ -2376,7 +2482,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
+      <c r="A72" s="59"/>
       <c r="B72" t="s">
         <v>135</v>
       </c>
@@ -2385,7 +2491,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
+      <c r="A73" s="59"/>
       <c r="B73" t="s">
         <v>136</v>
       </c>
@@ -2394,7 +2500,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
+      <c r="A74" s="59"/>
       <c r="B74" t="s">
         <v>137</v>
       </c>
@@ -2403,7 +2509,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="59"/>
       <c r="B75" t="s">
         <v>138</v>
       </c>
@@ -2412,7 +2518,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="59"/>
       <c r="B76" t="s">
         <v>139</v>
       </c>
@@ -2421,7 +2527,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="59"/>
       <c r="B77" t="s">
         <v>140</v>
       </c>
@@ -2444,17 +2550,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19BF3E-7EEF-423C-8D22-BB79E99E3E18}">
-  <dimension ref="A1:P1802"/>
+  <dimension ref="A1:P1803"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -2475,10 +2582,10 @@
         <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -2521,7 +2628,7 @@
       <c r="B2" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="38" t="s">
         <v>206</v>
       </c>
@@ -2555,7 +2662,7 @@
       <c r="B3" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="38" t="s">
         <v>206</v>
       </c>
@@ -2591,7 +2698,7 @@
       <c r="B4" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="39" t="s">
         <v>206</v>
       </c>
@@ -2627,7 +2734,7 @@
       <c r="B5" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="39" t="s">
         <v>206</v>
       </c>
@@ -2664,7 +2771,7 @@
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="39" t="s">
         <v>206</v>
       </c>
@@ -2701,7 +2808,7 @@
       <c r="B7" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="39" t="s">
         <v>206</v>
       </c>
@@ -2735,20 +2842,20 @@
       <c r="A8" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="29"/>
       <c r="P8" s="18" t="s">
         <v>277</v>
@@ -2761,7 +2868,7 @@
       <c r="B9" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="36" t="s">
         <v>206</v>
       </c>
@@ -2798,7 +2905,7 @@
       <c r="B10" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="36" t="s">
         <v>206</v>
       </c>
@@ -2833,7 +2940,7 @@
       <c r="B11" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="36" t="s">
         <v>206</v>
       </c>
@@ -2868,7 +2975,7 @@
       <c r="B12" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="36" t="s">
         <v>206</v>
       </c>
@@ -2905,7 +3012,7 @@
       <c r="B13" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="36" t="s">
         <v>206</v>
       </c>
@@ -2942,7 +3049,7 @@
       <c r="B14" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="36" t="s">
         <v>206</v>
       </c>
@@ -3007,7 +3114,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>222</v>
       </c>
@@ -3040,38 +3147,41 @@
       <c r="N16" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
       <c r="N17" s="29"/>
-    </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>223</v>
       </c>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>206</v>
@@ -3094,18 +3204,18 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
-      <c r="N18" s="65" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>224</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>206</v>
@@ -3128,16 +3238,16 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
-      <c r="N19" s="65"/>
-    </row>
-    <row r="20" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="62"/>
+    </row>
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>225</v>
       </c>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>206</v>
@@ -3160,16 +3270,16 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
-      <c r="N20" s="65"/>
-    </row>
-    <row r="21" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="62"/>
+    </row>
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>226</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>206</v>
@@ -3192,16 +3302,16 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
-      <c r="N21" s="65"/>
-    </row>
-    <row r="22" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>227</v>
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>206</v>
@@ -3224,16 +3334,16 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
-      <c r="N22" s="65"/>
-    </row>
-    <row r="23" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>228</v>
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>206</v>
@@ -3256,9 +3366,9 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
-      <c r="N23" s="65"/>
-    </row>
-    <row r="24" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>230</v>
       </c>
@@ -3292,7 +3402,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>232</v>
       </c>
@@ -3311,14 +3421,14 @@
       <c r="H25" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
       <c r="N25" s="29"/>
     </row>
-    <row r="26" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>234</v>
       </c>
@@ -3338,13 +3448,13 @@
         <v>235</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
@@ -3352,14 +3462,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>236</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="38" t="s">
         <v>206</v>
       </c>
@@ -3386,27 +3496,25 @@
       <c r="M27" s="44"/>
       <c r="N27" s="29"/>
     </row>
-    <row r="28" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="29"/>
     </row>
-    <row r="29" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -3418,19 +3526,21 @@
       <c r="E29" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="F29" s="55" t="s">
+        <v>281</v>
+      </c>
       <c r="G29" s="48" t="s">
         <v>237</v>
       </c>
       <c r="H29" s="41"/>
-      <c r="I29" s="44"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
       <c r="N29" s="29"/>
     </row>
-    <row r="30" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -3442,12 +3552,16 @@
       <c r="E30" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="54"/>
+      <c r="F30" s="55" t="s">
+        <v>281</v>
+      </c>
       <c r="G30" s="48" t="s">
         <v>237</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="53"/>
+      <c r="I30" s="52" t="s">
+        <v>291</v>
+      </c>
       <c r="J30" s="43" t="s">
         <v>255</v>
       </c>
@@ -3460,7 +3574,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -3479,14 +3593,14 @@
         <v>237</v>
       </c>
       <c r="H31" s="41"/>
-      <c r="I31" s="40"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="40"/>
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
       <c r="N31" s="30"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -3505,7 +3619,9 @@
         <v>237</v>
       </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="40"/>
+      <c r="I32" s="50" t="s">
+        <v>281</v>
+      </c>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
       <c r="L32" s="40"/>
@@ -3530,7 +3646,7 @@
         <v>237</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="40"/>
+      <c r="I33" s="51"/>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
       <c r="L33" s="40"/>
@@ -3557,7 +3673,7 @@
       <c r="H34" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
@@ -3582,7 +3698,7 @@
         <v>237</v>
       </c>
       <c r="H35" s="41"/>
-      <c r="I35" s="40"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="40"/>
       <c r="K35" s="40"/>
       <c r="L35" s="40"/>
@@ -3607,7 +3723,9 @@
         <v>237</v>
       </c>
       <c r="H36" s="41"/>
-      <c r="I36" s="40"/>
+      <c r="I36" s="50" t="s">
+        <v>281</v>
+      </c>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
@@ -3634,7 +3752,7 @@
       <c r="H37" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="I37" s="40"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
       <c r="L37" s="40"/>
@@ -3659,11 +3777,16 @@
         <v>237</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="40"/>
+      <c r="I38" s="50" t="s">
+        <v>281</v>
+      </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
+      <c r="N38" s="31" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3684,7 +3807,7 @@
         <v>237</v>
       </c>
       <c r="H39" s="41"/>
-      <c r="I39" s="40"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
       <c r="L39" s="40"/>
@@ -3731,11 +3854,13 @@
       <c r="B41" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="48"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E41" s="54"/>
+      <c r="E41" s="48" t="s">
+        <v>281</v>
+      </c>
       <c r="F41" s="48" t="s">
         <v>237</v>
       </c>
@@ -3758,10 +3883,12 @@
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
+      <c r="E42" s="40" t="s">
+        <v>287</v>
+      </c>
       <c r="F42" s="56"/>
       <c r="G42" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H42" s="41" t="s">
         <v>241</v>
@@ -3783,7 +3910,7 @@
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="40"/>
+      <c r="I43" s="51"/>
       <c r="J43" s="40"/>
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
@@ -3797,12 +3924,12 @@
       <c r="C44" s="56"/>
       <c r="D44" s="56"/>
       <c r="E44" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F44" s="56"/>
       <c r="G44" s="56"/>
       <c r="H44" s="41"/>
-      <c r="I44" s="40"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="40"/>
       <c r="K44" s="40"/>
       <c r="L44" s="40"/>
@@ -3819,7 +3946,7 @@
       <c r="F45" s="49"/>
       <c r="G45" s="54"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="40"/>
+      <c r="I45" s="51"/>
       <c r="J45" s="40"/>
       <c r="K45" s="40"/>
       <c r="L45" s="40"/>
@@ -3836,7 +3963,7 @@
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="40"/>
+      <c r="I46" s="51"/>
       <c r="J46" s="40"/>
       <c r="K46" s="40"/>
       <c r="L46" s="40"/>
@@ -3853,84 +3980,75 @@
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="40"/>
+      <c r="I47" s="51"/>
       <c r="J47" s="40"/>
       <c r="K47" s="40"/>
       <c r="L47" s="40"/>
       <c r="M47" s="40"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>195</v>
-      </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="K48" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="L48" s="56"/>
+      <c r="A48" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
       <c r="M48" s="40"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="37" t="s">
         <v>255</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="48" t="s">
+      <c r="H49" s="57"/>
+      <c r="I49" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="J49" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K49" s="48" t="s">
+      <c r="K49" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="L49" s="40"/>
+      <c r="L49" s="56"/>
       <c r="M49" s="40"/>
-      <c r="N49" s="31" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
       <c r="D50" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="48" t="s">
+        <v>255</v>
+      </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="55" t="s">
+      <c r="I50" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="J50" s="48" t="s">
         <v>255</v>
       </c>
       <c r="K50" s="48" t="s">
@@ -3938,26 +4056,29 @@
       </c>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
+      <c r="N50" s="31" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
       <c r="D51" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="F51" s="51"/>
+      <c r="F51" s="58" t="s">
+        <v>281</v>
+      </c>
       <c r="G51" s="51"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J51" s="48" t="s">
+      <c r="I51" s="51"/>
+      <c r="J51" s="55" t="s">
         <v>255</v>
       </c>
       <c r="K51" s="48" t="s">
@@ -3968,54 +4089,57 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="48" t="s">
         <v>255</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="47" t="s">
+      <c r="I52" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="J52" s="37" t="s">
+      <c r="J52" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="K52" s="37" t="s">
+      <c r="K52" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="23"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
+      <c r="F53" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>281</v>
+      </c>
       <c r="H53" s="41"/>
-      <c r="I53" s="48" t="s">
+      <c r="I53" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="J53" s="48" t="s">
+      <c r="J53" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K53" s="48" t="s">
+      <c r="K53" s="37" t="s">
         <v>255</v>
       </c>
       <c r="L53" s="56"/>
@@ -4023,49 +4147,55 @@
       <c r="N53" s="23"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="J54" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="23"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="23" t="s">
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="63" t="s">
-        <v>271</v>
-      </c>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="63" t="s">
-        <v>271</v>
-      </c>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -4073,17 +4203,21 @@
       <c r="E56" s="34"/>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="35"/>
+      <c r="H56" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="I56" s="34"/>
       <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="35"/>
       <c r="M56" s="25"/>
-      <c r="N56" s="63"/>
+      <c r="N56" s="60" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -4091,17 +4225,17 @@
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
-      <c r="H57" s="63"/>
+      <c r="H57" s="60"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
       <c r="M57" s="25"/>
-      <c r="N57" s="63"/>
+      <c r="N57" s="60"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -4109,17 +4243,17 @@
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="63"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="60"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -4127,17 +4261,17 @@
       <c r="E59" s="34"/>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
-      <c r="H59" s="63"/>
+      <c r="H59" s="60"/>
       <c r="I59" s="34"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
       <c r="M59" s="24"/>
-      <c r="N59" s="63"/>
+      <c r="N59" s="60"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -4145,228 +4279,231 @@
       <c r="E60" s="34"/>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
-      <c r="H60" s="63"/>
+      <c r="H60" s="60"/>
       <c r="I60" s="34"/>
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
       <c r="M60" s="24"/>
-      <c r="N60" s="63"/>
+      <c r="N60" s="60"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="60"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="I62" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>250</v>
-      </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
+        <v>249</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="I63" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>176</v>
       </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>251</v>
-      </c>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>254</v>
-      </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
+        <v>251</v>
+      </c>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>253</v>
       </c>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>252</v>
-      </c>
-      <c r="B70" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="I70" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>263</v>
-      </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
+        <v>252</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="I71" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>264</v>
       </c>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
@@ -4429,7 +4566,6 @@
       <c r="N77"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4477,6 +4613,13 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
       <c r="H81" s="33"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4522,13 +4665,6 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
       <c r="H86" s="33"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -5690,7 +5826,19 @@
       <c r="N158"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
       <c r="H159" s="33"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
       <c r="N159"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -12265,26 +12413,31 @@
       <c r="H1802" s="33"/>
       <c r="N1802"/>
     </row>
+    <row r="1803" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1803" s="33"/>
+      <c r="N1803"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="N55:N60"/>
+  <mergeCells count="19">
+    <mergeCell ref="B63:G69"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="B71:G73"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="I63:M69"/>
+    <mergeCell ref="I71:M73"/>
+    <mergeCell ref="H56:H61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="N56:N61"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="N18:N23"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B62:G68"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="B70:G72"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I62:M68"/>
-    <mergeCell ref="I70:M72"/>
-    <mergeCell ref="H55:H60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="B69:G69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12357,6 +12510,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DFD4858E290079428C5BFDA89E3AFED2" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ab1f7d3ec611606aaa043637b029a9c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2543e569-627a-4d03-b3be-15316f64362a" xmlns:ns4="b210fc11-311b-43ed-b87e-a5b89f2d6a52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf709b8e585f3065e57ca2c406dca2bc" ns3:_="" ns4:_="">
     <xsd:import namespace="2543e569-627a-4d03-b3be-15316f64362a"/>
@@ -12545,24 +12715,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29E9CDEC-EEEF-4227-8ABE-AAED908B81F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12579,29 +12757,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D73A8E-8EC4-43A6-A520-A1DEB05E8E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65DC436-9B83-4A44-B0E8-C05806DE0DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="28680" yWindow="4485" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -40,17 +40,27 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={7D8E0F55-43F1-41CB-8406-B15EDBF37B95}</author>
     <author>tc={B7E71C5C-C4F8-4A7D-A23A-4249918D874D}</author>
     <author>tc={A440696A-8FBF-44CB-ACA8-73A2B1BE2A85}</author>
     <author>tc={1BF648E4-22D4-45B6-9EBB-F0CD4471AD7C}</author>
     <author>tc={F2A473D3-543D-45B8-AF20-81FF2D86C488}</author>
+    <author>tc={BBCC0A15-7BD6-4921-9CD2-9330C5D45A5F}</author>
     <author>tc={5016BFA2-34DF-4282-9BE8-C6F627D2AE3E}</author>
     <author>tc={EE5A5CAE-7AFD-47A5-A294-920C6BE72CEF}</author>
     <author>tc={5ACF80A4-3273-4F9E-8727-538787B277A3}</author>
     <author>tc={61876B84-F5DA-451B-998D-6C7D7286518F}</author>
   </authors>
   <commentList>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{B7E71C5C-C4F8-4A7D-A23A-4249918D874D}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{7D8E0F55-43F1-41CB-8406-B15EDBF37B95}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Also available in eurostat under economically active population</t>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{B7E71C5C-C4F8-4A7D-A23A-4249918D874D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +68,7 @@
     Also available in 1000 in Ardeco</t>
       </text>
     </comment>
-    <comment ref="J24" authorId="1" shapeId="0" xr:uid="{A440696A-8FBF-44CB-ACA8-73A2B1BE2A85}">
+    <comment ref="J24" authorId="2" shapeId="0" xr:uid="{A440696A-8FBF-44CB-ACA8-73A2B1BE2A85}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +76,7 @@
     Net Wage is from 2011 onwards</t>
       </text>
     </comment>
-    <comment ref="A41" authorId="2" shapeId="0" xr:uid="{1BF648E4-22D4-45B6-9EBB-F0CD4471AD7C}">
+    <comment ref="A39" authorId="3" shapeId="0" xr:uid="{1BF648E4-22D4-45B6-9EBB-F0CD4471AD7C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +84,7 @@
     Homicide/robbery/burglary/theft (the last 2 consistent from 2012)</t>
       </text>
     </comment>
-    <comment ref="E41" authorId="3" shapeId="0" xr:uid="{F2A473D3-543D-45B8-AF20-81FF2D86C488}">
+    <comment ref="E39" authorId="4" shapeId="0" xr:uid="{F2A473D3-543D-45B8-AF20-81FF2D86C488}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +93,15 @@
 </t>
       </text>
     </comment>
-    <comment ref="F49" authorId="4" shapeId="0" xr:uid="{5016BFA2-34DF-4282-9BE8-C6F627D2AE3E}">
+    <comment ref="J39" authorId="5" shapeId="0" xr:uid="{BBCC0A15-7BD6-4921-9CD2-9330C5D45A5F}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Recorded crimes by Districts/Regions, Type of crime and Years. PxWeb (statistica.md) </t>
+      </text>
+    </comment>
+    <comment ref="F47" authorId="6" shapeId="0" xr:uid="{5016BFA2-34DF-4282-9BE8-C6F627D2AE3E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +110,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="E51" authorId="5" shapeId="0" xr:uid="{EE5A5CAE-7AFD-47A5-A294-920C6BE72CEF}">
+    <comment ref="E49" authorId="7" shapeId="0" xr:uid="{EE5A5CAE-7AFD-47A5-A294-920C6BE72CEF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +118,7 @@
     Not nace but other classification let seee</t>
       </text>
     </comment>
-    <comment ref="F51" authorId="6" shapeId="0" xr:uid="{5ACF80A4-3273-4F9E-8727-538787B277A3}">
+    <comment ref="F49" authorId="8" shapeId="0" xr:uid="{5ACF80A4-3273-4F9E-8727-538787B277A3}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +126,7 @@
     Publications | Statistical Office of the Republic of Serbia </t>
       </text>
     </comment>
-    <comment ref="F53" authorId="7" shapeId="0" xr:uid="{61876B84-F5DA-451B-998D-6C7D7286518F}">
+    <comment ref="F51" authorId="9" shapeId="0" xr:uid="{61876B84-F5DA-451B-998D-6C7D7286518F}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -121,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="290">
   <si>
     <t>Macedonia</t>
   </si>
@@ -684,12 +702,6 @@
     <t>Employement in high technology sectors</t>
   </si>
   <si>
-    <t>Economically active population</t>
-  </si>
-  <si>
-    <t>Economic activity rate</t>
-  </si>
-  <si>
     <t>Employement by edu</t>
   </si>
   <si>
@@ -957,9 +969,6 @@
     <t>2011/2013</t>
   </si>
   <si>
-    <t>age alternatives</t>
-  </si>
-  <si>
     <t>Interruction in time series for MK ME RS</t>
   </si>
   <si>
@@ -997,6 +1006,9 @@
   </si>
   <si>
     <t>☺</t>
+  </si>
+  <si>
+    <t>Nato Membership</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1444,9 +1456,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1484,7 +1496,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1590,7 +1602,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1732,7 +1744,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1740,16 +1752,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A16" dT="2024-05-11T06:57:34.28" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7D8E0F55-43F1-41CB-8406-B15EDBF37B95}">
+    <text>Also available in eurostat under economically active population</text>
+  </threadedComment>
   <threadedComment ref="E16" dT="2024-04-20T21:28:37.96" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{B7E71C5C-C4F8-4A7D-A23A-4249918D874D}">
     <text>Also available in 1000 in Ardeco</text>
   </threadedComment>
   <threadedComment ref="J24" dT="2024-04-19T20:00:47.45" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{A440696A-8FBF-44CB-ACA8-73A2B1BE2A85}">
     <text>Net Wage is from 2011 onwards</text>
   </threadedComment>
-  <threadedComment ref="A41" dT="2024-04-20T20:20:13.06" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{1BF648E4-22D4-45B6-9EBB-F0CD4471AD7C}">
+  <threadedComment ref="A39" dT="2024-04-20T20:20:13.06" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{1BF648E4-22D4-45B6-9EBB-F0CD4471AD7C}">
     <text>Homicide/robbery/burglary/theft (the last 2 consistent from 2012)</text>
   </threadedComment>
-  <threadedComment ref="E41" dT="2024-04-28T09:22:40.49" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{F2A473D3-543D-45B8-AF20-81FF2D86C488}">
+  <threadedComment ref="E39" dT="2024-04-28T09:22:40.49" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{F2A473D3-543D-45B8-AF20-81FF2D86C488}">
     <text xml:space="preserve">Under Judicature if needed: PxWeb - Select table (stat.gov.mk) 
 </text>
     <extLst>
@@ -1759,14 +1774,23 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="F49" dT="2024-04-27T17:35:46.47" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{5016BFA2-34DF-4282-9BE8-C6F627D2AE3E}">
+  <threadedComment ref="J39" dT="2024-05-11T07:43:35.38" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{BBCC0A15-7BD6-4921-9CD2-9330C5D45A5F}">
+    <text xml:space="preserve">Recorded crimes by Districts/Regions, Type of crime and Years. PxWeb (statistica.md) </text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>2655068630</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="84" url="https://statbank.statistica.md/PxWeb/pxweb/en/30%20Statistica%20sociala/30%20Statistica%20sociala__12%20JUS__JUS010/JUS010300reg.px/?rxid=b2ff27d7-0b96-43c9-934b-42e1a2a9a774"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="F47" dT="2024-04-27T17:35:46.47" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{5016BFA2-34DF-4282-9BE8-C6F627D2AE3E}">
     <text xml:space="preserve">Look up on national bank
 </text>
   </threadedComment>
-  <threadedComment ref="E51" dT="2024-04-27T17:03:05.70" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{EE5A5CAE-7AFD-47A5-A294-920C6BE72CEF}">
+  <threadedComment ref="E49" dT="2024-04-27T17:03:05.70" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{EE5A5CAE-7AFD-47A5-A294-920C6BE72CEF}">
     <text>Not nace but other classification let seee</text>
   </threadedComment>
-  <threadedComment ref="F51" dT="2024-04-28T08:54:34.37" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{5ACF80A4-3273-4F9E-8727-538787B277A3}">
+  <threadedComment ref="F49" dT="2024-04-28T08:54:34.37" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{5ACF80A4-3273-4F9E-8727-538787B277A3}">
     <text xml:space="preserve">Publications | Statistical Office of the Republic of Serbia </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1775,7 +1799,7 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="F53" dT="2024-04-28T08:56:24.22" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{61876B84-F5DA-451B-998D-6C7D7286518F}">
+  <threadedComment ref="F51" dT="2024-04-28T08:56:24.22" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{61876B84-F5DA-451B-998D-6C7D7286518F}">
     <text xml:space="preserve">Publications | Statistical Office of the Republic of Serbia </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -2550,11 +2574,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19BF3E-7EEF-423C-8D22-BB79E99E3E18}">
-  <dimension ref="A1:P1803"/>
+  <dimension ref="A1:P1802"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,10 +2606,10 @@
         <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -2600,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -2618,38 +2642,40 @@
         <v>8</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D2" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H2" s="41"/>
       <c r="I2" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L2" s="44"/>
       <c r="M2" s="44"/>
@@ -2657,105 +2683,111 @@
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D3" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D4" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
       <c r="N4" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D5" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
@@ -2766,33 +2798,35 @@
     </row>
     <row r="6" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D6" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="44"/>
@@ -2803,44 +2837,46 @@
     </row>
     <row r="7" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D7" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L7" s="44"/>
       <c r="M7" s="44"/>
       <c r="N7" s="29"/>
       <c r="P7" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -2849,7 +2885,7 @@
       <c r="F8" s="63"/>
       <c r="G8" s="63"/>
       <c r="H8" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="65"/>
@@ -2858,38 +2894,40 @@
       <c r="M8" s="65"/>
       <c r="N8" s="29"/>
       <c r="P8" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D9" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
@@ -2900,33 +2938,35 @@
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D10" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
@@ -2935,33 +2975,35 @@
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D11" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L11" s="44"/>
       <c r="M11" s="44"/>
@@ -2970,190 +3012,200 @@
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D12" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
       <c r="N12" s="29"/>
       <c r="P12" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D13" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K13" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
       <c r="N13" s="29"/>
       <c r="P13" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="46"/>
+        <v>204</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D14" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="44"/>
       <c r="N14" s="29"/>
       <c r="P14" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="D15" s="47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
       <c r="N15" s="29"/>
       <c r="P15" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="D16" s="47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
@@ -3162,7 +3214,7 @@
       <c r="F17" s="63"/>
       <c r="G17" s="63"/>
       <c r="H17" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -3171,70 +3223,74 @@
       <c r="M17" s="65"/>
       <c r="N17" s="29"/>
       <c r="P17" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="D18" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
       <c r="N18" s="62" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="D19" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
@@ -3242,31 +3298,33 @@
     </row>
     <row r="20" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="C20" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="D20" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
@@ -3274,31 +3332,33 @@
     </row>
     <row r="21" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="D21" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
@@ -3306,31 +3366,33 @@
     </row>
     <row r="22" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
+      <c r="C22" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="D22" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J22" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
@@ -3338,31 +3400,33 @@
     </row>
     <row r="23" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="D23" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J23" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
@@ -3370,59 +3434,61 @@
     </row>
     <row r="24" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G24" s="51"/>
       <c r="H24" s="41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K24" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
       <c r="N24" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I25" s="53"/>
-      <c r="J25" s="44"/>
+      <c r="J25" s="50" t="s">
+        <v>278</v>
+      </c>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
@@ -3430,67 +3496,69 @@
     </row>
     <row r="26" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
       <c r="N26" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="51"/>
+        <v>204</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>204</v>
+      </c>
       <c r="D27" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J27" s="53"/>
       <c r="K27" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="44"/>
@@ -3519,22 +3587,26 @@
         <v>182</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
+      <c r="C29" s="47" t="s">
+        <v>235</v>
+      </c>
       <c r="D29" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="53"/>
-      <c r="J29" s="44"/>
+      <c r="J29" s="45" t="s">
+        <v>278</v>
+      </c>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
@@ -3545,56 +3617,60 @@
         <v>184</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
+      <c r="C30" s="68" t="s">
+        <v>235</v>
+      </c>
       <c r="D30" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="52" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K30" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="44"/>
       <c r="N30" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
       <c r="D31" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="53"/>
-      <c r="J31" s="40"/>
+      <c r="J31" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
@@ -3607,292 +3683,288 @@
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
       <c r="D32" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="J32" s="40"/>
+        <v>278</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>278</v>
+      </c>
       <c r="K32" s="40"/>
       <c r="L32" s="40"/>
       <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
       <c r="D33" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="40"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="39" t="s">
+        <v>278</v>
+      </c>
       <c r="K33" s="40"/>
       <c r="L33" s="40"/>
       <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
       <c r="D34" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H34" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="40"/>
+      <c r="J34" s="39" t="s">
+        <v>278</v>
+      </c>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
       <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
-      <c r="D35" s="55" t="s">
-        <v>237</v>
+      <c r="D35" s="48" t="s">
+        <v>235</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>235</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H35" s="41"/>
+        <v>235</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>276</v>
+      </c>
       <c r="I35" s="25"/>
-      <c r="J35" s="40"/>
+      <c r="J35" s="53"/>
       <c r="K35" s="40"/>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
       <c r="D36" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H36" s="41"/>
       <c r="I36" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="J36" s="40"/>
+        <v>278</v>
+      </c>
+      <c r="J36" s="53"/>
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
+      <c r="N36" s="31" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="48" t="s">
-        <v>237</v>
+      <c r="D37" s="55" t="s">
+        <v>235</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>235</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>279</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="H37" s="41"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="40"/>
+      <c r="J37" s="39" t="s">
+        <v>278</v>
+      </c>
       <c r="K37" s="40"/>
       <c r="L37" s="40"/>
       <c r="M37" s="40"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
+      <c r="I38" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>253</v>
+      </c>
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
       <c r="N38" s="31" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="54"/>
+        <v>188</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="C39" s="54"/>
-      <c r="D39" s="55" t="s">
-        <v>237</v>
+      <c r="D39" s="48" t="s">
+        <v>235</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>237</v>
+        <v>278</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>235</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H39" s="41"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="40"/>
+      <c r="I39" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>278</v>
+      </c>
       <c r="K39" s="40"/>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="J40" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="K40" s="48" t="s">
-        <v>255</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="N40" s="31" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>237</v>
-      </c>
+      <c r="A41" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" s="40"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>240</v>
+      <c r="A42" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
       <c r="E42" s="40" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F42" s="56"/>
-      <c r="G42" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>241</v>
-      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
@@ -3908,290 +3980,294 @@
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="41"/>
       <c r="I43" s="51"/>
-      <c r="J43" s="40"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+        <v>9</v>
+      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="41"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="40"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="40"/>
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="54"/>
+        <v>246</v>
+      </c>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="41"/>
       <c r="I45" s="51"/>
-      <c r="J45" s="40"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="40"/>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
+      <c r="A46" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="51"/>
+      <c r="I46" s="40"/>
       <c r="J46" s="40"/>
       <c r="K46" s="40"/>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>248</v>
+      <c r="A47" t="s">
+        <v>193</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
+      <c r="D47" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>253</v>
+      </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="K47" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="L47" s="56"/>
       <c r="M47" s="40"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
+      <c r="I48" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>253</v>
+      </c>
       <c r="L48" s="40"/>
       <c r="M48" s="40"/>
+      <c r="N48" s="31" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
-      <c r="D49" s="47" t="s">
-        <v>255</v>
+      <c r="D49" s="48" t="s">
+        <v>253</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F49" s="51"/>
+        <v>253</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>278</v>
+      </c>
       <c r="G49" s="51"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="K49" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="L49" s="56"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="K49" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L49" s="40"/>
       <c r="M49" s="40"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
       <c r="D50" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="41"/>
       <c r="I50" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K50" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
-      <c r="N50" s="31" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
-      <c r="D51" s="48" t="s">
-        <v>255</v>
+      <c r="D51" s="47" t="s">
+        <v>253</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F51" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="G51" s="51"/>
+        <v>278</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>278</v>
+      </c>
       <c r="H51" s="41"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="K51" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
+      <c r="I51" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="23"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
       <c r="D52" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="41"/>
       <c r="I52" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K52" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
+        <v>253</v>
+      </c>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="23"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="G53" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="J53" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="K53" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="23"/>
+      <c r="A53" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="J54" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="K54" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="23"/>
+        <v>195</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="I54" s="34"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="60" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="60"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -4203,21 +4279,17 @@
       <c r="E56" s="34"/>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
-      <c r="H56" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="I56" s="34"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="35"/>
-      <c r="K56" s="34"/>
+      <c r="K56" s="35"/>
       <c r="L56" s="35"/>
       <c r="M56" s="25"/>
-      <c r="N56" s="60" t="s">
-        <v>271</v>
-      </c>
+      <c r="N56" s="60"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -4226,11 +4298,11 @@
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
       <c r="H57" s="60"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="25"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="24"/>
       <c r="N57" s="60"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4244,11 +4316,11 @@
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
       <c r="H58" s="60"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="25"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="24"/>
       <c r="N58" s="60"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4270,80 +4342,76 @@
       <c r="N59" s="60"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="60"/>
+      <c r="A60" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="60"/>
+        <v>247</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="I61" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
+      <c r="A62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>249</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>262</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B63" s="64"/>
       <c r="C63" s="64"/>
       <c r="D63" s="64"/>
       <c r="E63" s="64"/>
       <c r="F63" s="64"/>
       <c r="G63" s="64"/>
-      <c r="I63" s="64" t="s">
-        <v>262</v>
-      </c>
+      <c r="I63" s="64"/>
       <c r="J63" s="64"/>
       <c r="K63" s="64"/>
       <c r="L63" s="64"/>
       <c r="M63" s="64"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>250</v>
+      <c r="A64" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
@@ -4359,7 +4427,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
@@ -4374,8 +4442,8 @@
       <c r="M65" s="64"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>191</v>
+      <c r="A66" t="s">
+        <v>252</v>
       </c>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
@@ -4391,7 +4459,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
@@ -4407,7 +4475,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
@@ -4422,52 +4490,52 @@
       <c r="M68" s="64"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>253</v>
-      </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="64"/>
+      <c r="A69" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
+      <c r="A70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="I70" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>252</v>
-      </c>
-      <c r="B71" s="66" t="s">
-        <v>272</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B71" s="66"/>
       <c r="C71" s="66"/>
       <c r="D71" s="66"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
-      <c r="I71" s="66" t="s">
-        <v>272</v>
-      </c>
+      <c r="I71" s="66"/>
       <c r="J71" s="66"/>
       <c r="K71" s="66"/>
       <c r="L71" s="66"/>
@@ -4475,7 +4543,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B72" s="66"/>
       <c r="C72" s="66"/>
@@ -4490,20 +4558,19 @@
       <c r="M72" s="66"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>264</v>
-      </c>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
@@ -4566,6 +4633,7 @@
       <c r="N77"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4613,13 +4681,6 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
       <c r="H81" s="33"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4665,6 +4726,13 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
       <c r="H86" s="33"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -5826,19 +5894,7 @@
       <c r="N158"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
       <c r="H159" s="33"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
       <c r="N159"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -12413,27 +12469,23 @@
       <c r="H1802" s="33"/>
       <c r="N1802"/>
     </row>
-    <row r="1803" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H1803" s="33"/>
-      <c r="N1803"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B63:G69"/>
+    <mergeCell ref="B61:G68"/>
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="I8:M8"/>
-    <mergeCell ref="B71:G73"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="I70:M70"/>
-    <mergeCell ref="I63:M69"/>
-    <mergeCell ref="I71:M73"/>
-    <mergeCell ref="H56:H61"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B70:G72"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I61:M68"/>
+    <mergeCell ref="I70:M72"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="I28:M28"/>
-    <mergeCell ref="N56:N61"/>
+    <mergeCell ref="N54:N59"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="N18:N23"/>
     <mergeCell ref="B8:G8"/>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D1D4E6-6451-47FC-94EC-94CD4E2953F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5D108-72B1-4992-925E-F9A6B06C47AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -39,22 +39,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F726E675-8266-41FD-8C48-878F0DB0FA12}</author>
     <author>tc={6CEC4F77-AFA3-4B85-8F68-BCDDD69F7A44}</author>
     <author>tc={7BFF2561-999D-4A95-A783-49486DDF8A1A}</author>
-    <author>tc={A742749F-98FA-4D50-8DF0-E908806310C3}</author>
-    <author>tc={1EB84F11-C2A4-47C1-8D14-0D873CABD477}</author>
+    <author>tc={CA158C09-B7BE-42D4-8E0A-6078876475BA}</author>
   </authors>
   <commentList>
-    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{F726E675-8266-41FD-8C48-878F0DB0FA12}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Figure out mapping through NACE</t>
-      </text>
-    </comment>
-    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{6CEC4F77-AFA3-4B85-8F68-BCDDD69F7A44}">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{6CEC4F77-AFA3-4B85-8F68-BCDDD69F7A44}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +52,7 @@
     Available also for some NACE activites. Not for all countries</t>
       </text>
     </comment>
-    <comment ref="N31" authorId="2" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+    <comment ref="N31" authorId="1" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,20 +60,12 @@
     RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </t>
       </text>
     </comment>
-    <comment ref="K33" authorId="3" shapeId="0" xr:uid="{A742749F-98FA-4D50-8DF0-E908806310C3}">
+    <comment ref="I33" authorId="2" shapeId="0" xr:uid="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Figure out how to gather them together/use the cumolative %</t>
-      </text>
-    </comment>
-    <comment ref="K34" authorId="4" shapeId="0" xr:uid="{1EB84F11-C2A4-47C1-8D14-0D873CABD477}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Figure out how to proxy it</t>
+    Proxy: labour force by educational attainment</t>
       </text>
     </comment>
   </commentList>
@@ -91,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="206">
   <si>
     <t>Macedonia</t>
   </si>
@@ -615,33 +597,21 @@
     <t>♂</t>
   </si>
   <si>
-    <t>V/♂</t>
-  </si>
-  <si>
     <t>Gross Fixed Capital Formation at current prices</t>
   </si>
   <si>
     <t>edat_lfse_04       lfst_r_lfsd2pop</t>
   </si>
   <si>
-    <t>Labour Force</t>
-  </si>
-  <si>
     <t>Unemployement by education level</t>
   </si>
   <si>
     <t>Population</t>
   </si>
   <si>
-    <t>♂/o</t>
-  </si>
-  <si>
     <t>♥/V</t>
   </si>
   <si>
-    <t>♂/V</t>
-  </si>
-  <si>
     <t>♂ World Bank</t>
   </si>
   <si>
@@ -666,18 +636,12 @@
     <t>Nominal compensation per employees</t>
   </si>
   <si>
-    <t>Ardeco needs to be divided by 12 annuities</t>
-  </si>
-  <si>
     <t>Sea Ports/Airports</t>
   </si>
   <si>
     <t>Economic Activity per edu</t>
   </si>
   <si>
-    <t>Remove Aland</t>
-  </si>
-  <si>
     <t>About London: average Inner and Outer London regions to just have 2</t>
   </si>
   <si>
@@ -687,9 +651,6 @@
     <t>About Poland shift down 2013 regions</t>
   </si>
   <si>
-    <t>About Ireland keep as it is</t>
-  </si>
-  <si>
     <t>About Croatia combine Pannonia</t>
   </si>
   <si>
@@ -697,6 +658,39 @@
   </si>
   <si>
     <t>Macroregion</t>
+  </si>
+  <si>
+    <t>About Slovenia level out differences</t>
+  </si>
+  <si>
+    <t>Exclude L</t>
+  </si>
+  <si>
+    <t>Economic Activity %</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>About Ireland keep alternative</t>
+  </si>
+  <si>
+    <t>About Lithuania merge in one</t>
+  </si>
+  <si>
+    <t>About Hungary combine in one budapest</t>
+  </si>
+  <si>
+    <t>Improve data for IE</t>
+  </si>
+  <si>
+    <t>Find better data for IE/PL/UK</t>
+  </si>
+  <si>
+    <t>Alteratively have a look also to ESPON should you need more data per NACE activity</t>
+  </si>
+  <si>
+    <t>Ardeco needs to be divided by 12 annuities.  I combined the average here, or shoudl I just sum the absolute values</t>
   </si>
 </sst>
 </file>
@@ -754,13 +748,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,8 +794,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -909,43 +912,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -961,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,24 +990,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1072,9 +1020,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,17 +1041,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,9 +1386,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K16" dT="2024-06-27T16:18:33.66" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{F726E675-8266-41FD-8C48-878F0DB0FA12}">
-    <text>Figure out mapping through NACE</text>
-  </threadedComment>
   <threadedComment ref="B29" dT="2024-06-22T09:20:54.41" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{6CEC4F77-AFA3-4B85-8F68-BCDDD69F7A44}">
     <text>Available also for some NACE activites. Not for all countries</text>
   </threadedComment>
@@ -1449,21 +1398,19 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="K33" dT="2024-06-27T16:26:15.71" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{A742749F-98FA-4D50-8DF0-E908806310C3}">
-    <text>Figure out how to gather them together/use the cumolative %</text>
-  </threadedComment>
-  <threadedComment ref="K34" dT="2024-07-03T09:56:06.01" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{1EB84F11-C2A4-47C1-8D14-0D873CABD477}">
-    <text>Figure out how to proxy it</text>
+  <threadedComment ref="I33" dT="2024-07-05T13:09:39.00" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
+    <text>Proxy: labour force by educational attainment</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEBABFD-CDF2-4C41-B705-2A0DD7A6C02F}">
-  <dimension ref="A1:H37"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1423,7 @@
     <col min="8" max="8" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1497,15 +1444,18 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="26"/>
       <c r="H2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="I2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,18 +1465,21 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="28">
         <f>COUNTA(A2:A37 )</f>
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="I3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1534,21 +1487,24 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="30">
         <f>COUNTA(B2:B37 )</f>
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1558,11 +1514,14 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+        <v>192</v>
+      </c>
+      <c r="I5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1570,28 +1529,40 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="H7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1601,8 +1572,11 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1610,10 +1584,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1624,8 +1598,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1635,8 +1609,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1644,8 +1618,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1653,8 +1627,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1662,8 +1636,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1672,7 +1646,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1681,7 +1655,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1690,7 +1664,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1699,7 +1673,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1708,7 +1682,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1717,7 +1691,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1726,7 +1700,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -1735,7 +1709,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="44"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1744,7 +1718,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="44"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -1753,7 +1727,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="44"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -1762,7 +1736,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="44"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -1771,7 +1745,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="44"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -1780,7 +1754,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
+      <c r="A29" s="44"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -1789,7 +1763,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="44"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -1798,7 +1772,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="44"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -1807,7 +1781,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
+      <c r="A32" s="44"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -1816,7 +1790,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="44"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -1825,7 +1799,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="44"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -1834,7 +1808,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="44"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -1843,7 +1817,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -1852,7 +1826,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -1871,19 +1845,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4918A90-F1AE-4A78-BE56-1B0A62F131CD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="38" style="24" customWidth="1"/>
     <col min="3" max="11" width="14.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="3.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="29.140625" style="4" customWidth="1"/>
   </cols>
@@ -1928,10 +1903,10 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>179</v>
+        <v>193</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>91</v>
@@ -1960,13 +1935,13 @@
       <c r="K2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="37"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2005,7 +1980,7 @@
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -2036,7 +2011,7 @@
         <v>170</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="34" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2044,7 +2019,7 @@
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -2075,7 +2050,7 @@
         <v>170</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="35" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2114,7 +2089,7 @@
         <v>170</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="36" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2153,7 +2128,7 @@
         <v>170</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="37" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2232,7 +2207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -2267,7 +2242,7 @@
         <v>170</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2306,7 +2281,7 @@
         <v>170</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="32" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2345,7 +2320,7 @@
         <v>170</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="32" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2384,7 +2359,7 @@
         <v>170</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="32" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2423,8 +2398,8 @@
         <v>170</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="N14" s="40" t="s">
-        <v>183</v>
+      <c r="N14" s="33" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2463,11 +2438,11 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -2488,16 +2463,18 @@
       <c r="H16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" s="1"/>
+      <c r="I16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="N16" s="21" t="s">
         <v>148</v>
       </c>
@@ -2516,7 +2493,7 @@
         <v>170</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>91</v>
@@ -2536,8 +2513,10 @@
       <c r="K17" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="N17" s="39" t="s">
+      <c r="L17" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="N17" s="32" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2555,7 +2534,7 @@
         <v>170</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>91</v>
@@ -2575,8 +2554,8 @@
       <c r="K18" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="N18" s="39" t="s">
+      <c r="L18" s="45"/>
+      <c r="N18" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2594,29 +2573,29 @@
         <v>170</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" s="45"/>
+      <c r="N19" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="N19" s="45" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2633,7 +2612,7 @@
         <v>170</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>91</v>
@@ -2653,12 +2632,12 @@
       <c r="K20" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="N20" s="39" t="s">
+      <c r="L20" s="45"/>
+      <c r="N20" s="32" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>140</v>
       </c>
@@ -2672,7 +2651,7 @@
         <v>170</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>91</v>
@@ -2692,8 +2671,8 @@
       <c r="K21" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="N21" s="39" t="s">
+      <c r="L21" s="45"/>
+      <c r="N21" s="32" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2711,7 +2690,7 @@
         <v>170</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>91</v>
@@ -2731,8 +2710,8 @@
       <c r="K22" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="N22" s="39" t="s">
+      <c r="L22" s="45"/>
+      <c r="N22" s="32" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2750,7 +2729,7 @@
         <v>170</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>91</v>
@@ -2770,8 +2749,8 @@
       <c r="K23" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="N23" s="39" t="s">
+      <c r="L23" s="45"/>
+      <c r="N23" s="32" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2789,7 +2768,7 @@
         <v>170</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>91</v>
@@ -2809,8 +2788,8 @@
       <c r="K24" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="N24" s="39" t="s">
+      <c r="L24" s="45"/>
+      <c r="N24" s="32" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2828,7 +2807,7 @@
         <v>170</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>91</v>
@@ -2848,9 +2827,9 @@
       <c r="K25" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="N25" s="39" t="s">
-        <v>186</v>
+      <c r="L25" s="45"/>
+      <c r="N25" s="32" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2867,7 +2846,7 @@
         <v>170</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>91</v>
@@ -2887,16 +2866,16 @@
       <c r="K26" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="N26" s="39" t="s">
+      <c r="L26" s="45"/>
+      <c r="N26" s="32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -2926,19 +2905,17 @@
       <c r="K27" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L27" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="N27" s="39" t="s">
+      <c r="L27" s="31"/>
+      <c r="N27" s="32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>91</v>
@@ -2967,10 +2944,10 @@
       <c r="K28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L28" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="N28" s="39" t="s">
+      <c r="L28" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="N28" s="32" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2978,8 +2955,8 @@
       <c r="A29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>175</v>
+      <c r="B29" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>91</v>
@@ -2999,25 +2976,25 @@
       <c r="H29" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>180</v>
+      <c r="I29" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="N29" s="39" t="s">
+      <c r="N29" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3042,13 +3019,15 @@
         <v>173</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L30" s="37"/>
-      <c r="N30" s="39" t="s">
+      <c r="L30" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="N30" s="32" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3056,7 +3035,7 @@
       <c r="A31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="22" t="s">
         <v>154</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -3086,16 +3065,18 @@
       <c r="K31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L31" s="37"/>
-      <c r="N31" s="39" t="s">
-        <v>192</v>
+      <c r="L31" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -3117,30 +3098,30 @@
         <v>96</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>173</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="N32" s="49" t="s">
-        <v>193</v>
+      <c r="N32" s="39" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -3155,29 +3136,29 @@
       <c r="H33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="31"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="22" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>173</v>
+      <c r="D34" s="43" t="s">
+        <v>198</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>96</v>
@@ -3191,28 +3172,28 @@
       <c r="H34" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>173</v>
+      <c r="I34" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>198</v>
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>178</v>
+      <c r="B35" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -3228,22 +3209,22 @@
         <v>96</v>
       </c>
       <c r="I35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="31"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>177</v>
+      <c r="B36" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>96</v>
@@ -3263,13 +3244,13 @@
       <c r="H36" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="K36" s="48" t="s">
+      <c r="I36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>170</v>
       </c>
       <c r="L36" s="1"/>
@@ -3278,37 +3259,37 @@
       <c r="B37" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K37" s="29" t="s">
-        <v>184</v>
+      <c r="C37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="24" t="s">
         <v>169</v>
       </c>
       <c r="C38" s="16"/>
@@ -3322,233 +3303,233 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>184</v>
+      <c r="C39" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J40" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K40" s="29" t="s">
-        <v>184</v>
+      <c r="C40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J41" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K41" s="29" t="s">
-        <v>184</v>
+      <c r="C41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>184</v>
+      <c r="C42" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J43" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K43" s="29" t="s">
-        <v>184</v>
+      <c r="B43" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>184</v>
+      <c r="C44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>184</v>
+      <c r="C45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="L45" s="5"/>
     </row>
@@ -3982,6 +3963,9 @@
       <c r="L98" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L17:L26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3989,12 +3973,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4187,17 +4170,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4222,18 +4215,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5D108-72B1-4992-925E-F9A6B06C47AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E54A4-B5CB-4522-8BE7-7D76A435BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="206">
   <si>
     <t>Macedonia</t>
   </si>
@@ -757,7 +757,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -966,9 +972,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,6 +1062,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,10 +1459,10 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="25"/>
       <c r="H2" t="s">
         <v>189</v>
       </c>
@@ -1465,10 +1480,10 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <f>COUNTA(A2:A37 )</f>
         <v>8</v>
       </c>
@@ -1489,10 +1504,10 @@
       <c r="C4" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <f>COUNTA(B2:B37 )</f>
         <v>36</v>
       </c>
@@ -1504,7 +1519,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1521,7 +1536,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1536,7 +1551,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1551,14 +1566,14 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1572,7 +1587,7 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1599,7 +1614,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1610,7 +1625,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1619,7 +1634,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1628,7 +1643,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1637,7 +1652,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="43"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1661,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1655,7 +1670,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1664,7 +1679,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1673,7 +1688,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1682,7 +1697,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="43"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1706,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1700,7 +1715,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +1724,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1718,7 +1733,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -1727,7 +1742,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="43"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -1736,7 +1751,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="43"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -1745,7 +1760,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -1754,7 +1769,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="43"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -1763,7 +1778,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -1772,7 +1787,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -1781,7 +1796,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="43"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -1790,7 +1805,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -1799,7 +1814,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -1808,7 +1823,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -1817,7 +1832,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -1826,7 +1841,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="43"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -1850,13 +1865,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38" style="24" customWidth="1"/>
+    <col min="2" max="2" width="38" style="23" customWidth="1"/>
     <col min="3" max="11" width="14.42578125" style="4" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="3.140625" style="4" customWidth="1"/>
@@ -1867,7 +1882,7 @@
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1905,25 +1920,25 @@
       <c r="A2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -1935,31 +1950,31 @@
       <c r="K2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="31"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="C3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -1972,7 +1987,7 @@
         <v>173</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1980,25 +1995,25 @@
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="C4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -2011,7 +2026,7 @@
         <v>170</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="33" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2019,25 +2034,25 @@
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -2050,7 +2065,7 @@
         <v>170</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="34" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2058,7 +2073,7 @@
       <c r="A6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2089,7 +2104,7 @@
         <v>170</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="35" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2097,7 +2112,7 @@
       <c r="A7" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2128,7 +2143,7 @@
         <v>170</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2136,7 +2151,7 @@
       <c r="A8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2172,7 +2187,7 @@
       <c r="A9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2203,7 +2218,7 @@
         <v>170</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2211,7 +2226,7 @@
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2242,7 +2257,7 @@
         <v>170</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="31" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2250,7 +2265,7 @@
       <c r="A11" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -2281,7 +2296,7 @@
         <v>170</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="31" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2289,7 +2304,7 @@
       <c r="A12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2320,7 +2335,7 @@
         <v>170</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="31" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2328,7 +2343,7 @@
       <c r="A13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -2359,7 +2374,7 @@
         <v>170</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="31" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2367,7 +2382,7 @@
       <c r="A14" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2398,7 +2413,7 @@
         <v>170</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="N14" s="33" t="s">
+      <c r="N14" s="32" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2406,7 +2421,7 @@
       <c r="A15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -2438,29 +2453,29 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="F16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -2475,7 +2490,7 @@
       <c r="L16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2483,7 +2498,7 @@
       <c r="A17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -2492,7 +2507,7 @@
       <c r="D17" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -2501,9 +2516,7 @@
       <c r="G17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H17" s="45"/>
       <c r="I17" s="12" t="s">
         <v>170</v>
       </c>
@@ -2513,10 +2526,10 @@
       <c r="K17" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="31" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2524,7 +2537,7 @@
       <c r="A18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -2533,7 +2546,7 @@
       <c r="D18" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F18" s="14" t="s">
@@ -2542,9 +2555,7 @@
       <c r="G18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H18" s="46"/>
       <c r="I18" s="12" t="s">
         <v>170</v>
       </c>
@@ -2554,8 +2565,8 @@
       <c r="K18" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="N18" s="32" t="s">
+      <c r="L18" s="44"/>
+      <c r="N18" s="31" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2563,7 +2574,7 @@
       <c r="A19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2572,7 +2583,7 @@
       <c r="D19" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F19" s="14" t="s">
@@ -2581,9 +2592,7 @@
       <c r="G19" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H19" s="46"/>
       <c r="I19" s="12" t="s">
         <v>170</v>
       </c>
@@ -2593,8 +2602,8 @@
       <c r="K19" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="N19" s="38" t="s">
+      <c r="L19" s="44"/>
+      <c r="N19" s="37" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2602,7 +2611,7 @@
       <c r="A20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -2611,7 +2620,7 @@
       <c r="D20" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F20" s="14" t="s">
@@ -2620,9 +2629,7 @@
       <c r="G20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H20" s="46"/>
       <c r="I20" s="12" t="s">
         <v>170</v>
       </c>
@@ -2632,8 +2639,8 @@
       <c r="K20" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="N20" s="32" t="s">
+      <c r="L20" s="44"/>
+      <c r="N20" s="31" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2641,7 +2648,7 @@
       <c r="A21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -2650,7 +2657,7 @@
       <c r="D21" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F21" s="14" t="s">
@@ -2659,9 +2666,7 @@
       <c r="G21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H21" s="46"/>
       <c r="I21" s="12" t="s">
         <v>170</v>
       </c>
@@ -2671,8 +2676,8 @@
       <c r="K21" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="N21" s="32" t="s">
+      <c r="L21" s="44"/>
+      <c r="N21" s="31" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2680,7 +2685,7 @@
       <c r="A22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -2689,7 +2694,7 @@
       <c r="D22" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -2698,9 +2703,7 @@
       <c r="G22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H22" s="46"/>
       <c r="I22" s="12" t="s">
         <v>170</v>
       </c>
@@ -2710,8 +2713,8 @@
       <c r="K22" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="N22" s="32" t="s">
+      <c r="L22" s="44"/>
+      <c r="N22" s="31" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2719,7 +2722,7 @@
       <c r="A23" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -2728,7 +2731,7 @@
       <c r="D23" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F23" s="14" t="s">
@@ -2737,9 +2740,7 @@
       <c r="G23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H23" s="46"/>
       <c r="I23" s="12" t="s">
         <v>170</v>
       </c>
@@ -2749,8 +2750,8 @@
       <c r="K23" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="N23" s="32" t="s">
+      <c r="L23" s="44"/>
+      <c r="N23" s="31" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2758,7 +2759,7 @@
       <c r="A24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2767,7 +2768,7 @@
       <c r="D24" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F24" s="14" t="s">
@@ -2776,9 +2777,7 @@
       <c r="G24" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H24" s="46"/>
       <c r="I24" s="12" t="s">
         <v>170</v>
       </c>
@@ -2788,8 +2787,8 @@
       <c r="K24" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="N24" s="32" t="s">
+      <c r="L24" s="44"/>
+      <c r="N24" s="31" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2797,7 +2796,7 @@
       <c r="A25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -2806,7 +2805,7 @@
       <c r="D25" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F25" s="14" t="s">
@@ -2815,9 +2814,7 @@
       <c r="G25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H25" s="46"/>
       <c r="I25" s="12" t="s">
         <v>170</v>
       </c>
@@ -2827,16 +2824,16 @@
       <c r="K25" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="N25" s="32" t="s">
+      <c r="L25" s="44"/>
+      <c r="N25" s="31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -2845,7 +2842,7 @@
       <c r="D26" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="48" t="s">
         <v>178</v>
       </c>
       <c r="F26" s="14" t="s">
@@ -2854,9 +2851,7 @@
       <c r="G26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H26" s="47"/>
       <c r="I26" s="12" t="s">
         <v>170</v>
       </c>
@@ -2866,8 +2861,8 @@
       <c r="K26" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="N26" s="32" t="s">
+      <c r="L26" s="44"/>
+      <c r="N26" s="31" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2875,25 +2870,25 @@
       <c r="A27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="E27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I27" s="9" t="s">
@@ -2905,8 +2900,8 @@
       <c r="K27" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="N27" s="32" t="s">
+      <c r="L27" s="30"/>
+      <c r="N27" s="31" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2914,10 +2909,10 @@
       <c r="A28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -2926,13 +2921,13 @@
       <c r="E28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="F28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I28" s="7" t="s">
@@ -2944,10 +2939,10 @@
       <c r="K28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="L28" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="N28" s="32" t="s">
+      <c r="N28" s="31" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2955,25 +2950,25 @@
       <c r="A29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="C29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I29" s="9" t="s">
@@ -2986,7 +2981,7 @@
         <v>173</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="N29" s="32" t="s">
+      <c r="N29" s="31" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2994,7 +2989,7 @@
       <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3024,10 +3019,10 @@
       <c r="K30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L30" s="31" t="s">
+      <c r="L30" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="N30" s="32" t="s">
+      <c r="N30" s="31" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3035,7 +3030,7 @@
       <c r="A31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>154</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -3065,10 +3060,10 @@
       <c r="K31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="31" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3076,7 +3071,7 @@
       <c r="A32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -3107,15 +3102,15 @@
         <v>173</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="N32" s="39" t="s">
+      <c r="N32" s="38" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3136,7 +3131,7 @@
       <c r="H33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J33" s="7" t="s">
@@ -3145,19 +3140,19 @@
       <c r="K33" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="42" t="s">
         <v>198</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -3178,7 +3173,7 @@
       <c r="J34" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="43" t="s">
+      <c r="K34" s="42" t="s">
         <v>198</v>
       </c>
       <c r="L34" s="1"/>
@@ -3187,13 +3182,13 @@
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>176</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="41" t="s">
         <v>173</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -3214,16 +3209,16 @@
       <c r="J35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="42" t="s">
+      <c r="K35" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="L35" s="31"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>197</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3256,279 +3251,279 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K37" s="23" t="s">
+      <c r="C37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" s="22" t="s">
         <v>180</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="C38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K39" s="23" t="s">
+      <c r="C39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K39" s="22" t="s">
         <v>180</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K40" s="23" t="s">
+      <c r="C40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" s="22" t="s">
         <v>180</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K41" s="23" t="s">
+      <c r="C41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="22" t="s">
         <v>180</v>
       </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K42" s="23" t="s">
+      <c r="C42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="22" t="s">
         <v>180</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J43" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K43" s="23" t="s">
+      <c r="C43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K43" s="22" t="s">
         <v>180</v>
       </c>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K44" s="23" t="s">
+      <c r="C44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K44" s="22" t="s">
         <v>180</v>
       </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K45" s="23" t="s">
+      <c r="C45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K45" s="22" t="s">
         <v>180</v>
       </c>
       <c r="L45" s="5"/>
@@ -3541,8 +3536,8 @@
       <c r="D47" s="5"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -3553,8 +3548,8 @@
       <c r="D48" s="5"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -3565,32 +3560,32 @@
       <c r="D49" s="5"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C50" s="16"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="8"/>
       <c r="D51" s="6"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -3617,8 +3612,8 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -3629,7 +3624,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="J54" s="8"/>
-      <c r="K54" s="16"/>
+      <c r="K54" s="15"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -3639,8 +3634,8 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -3650,8 +3645,8 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -3660,20 +3655,20 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="16"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -3682,9 +3677,9 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -3693,17 +3688,17 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="15"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -3711,12 +3706,12 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3724,7 +3719,7 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
-      <c r="D63" s="17"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E54A4-B5CB-4522-8BE7-7D76A435BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A904EB5-827F-4B80-B16A-7AAD74B4A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -41,6 +41,7 @@
   <authors>
     <author>tc={6CEC4F77-AFA3-4B85-8F68-BCDDD69F7A44}</author>
     <author>tc={7BFF2561-999D-4A95-A783-49486DDF8A1A}</author>
+    <author>tc={50FBF0FD-8E0B-4A4A-A131-D3377EB7D8BD}</author>
     <author>tc={CA158C09-B7BE-42D4-8E0A-6078876475BA}</author>
   </authors>
   <commentList>
@@ -60,7 +61,15 @@
     RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </t>
       </text>
     </comment>
-    <comment ref="I33" authorId="2" shapeId="0" xr:uid="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
+    <comment ref="D33" authorId="2" shapeId="0" xr:uid="{50FBF0FD-8E0B-4A4A-A131-D3377EB7D8BD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Do the trick with labour force by educational attainment</t>
+      </text>
+    </comment>
+    <comment ref="I33" authorId="3" shapeId="0" xr:uid="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="200">
   <si>
     <t>Macedonia</t>
   </si>
@@ -600,18 +609,12 @@
     <t>Gross Fixed Capital Formation at current prices</t>
   </si>
   <si>
-    <t>edat_lfse_04       lfst_r_lfsd2pop</t>
-  </si>
-  <si>
     <t>Unemployement by education level</t>
   </si>
   <si>
     <t>Population</t>
   </si>
   <si>
-    <t>♥/V</t>
-  </si>
-  <si>
     <t>♂ World Bank</t>
   </si>
   <si>
@@ -639,9 +642,6 @@
     <t>Sea Ports/Airports</t>
   </si>
   <si>
-    <t>Economic Activity per edu</t>
-  </si>
-  <si>
     <t>About London: average Inner and Outer London regions to just have 2</t>
   </si>
   <si>
@@ -663,9 +663,6 @@
     <t>About Slovenia level out differences</t>
   </si>
   <si>
-    <t>Exclude L</t>
-  </si>
-  <si>
     <t>Economic Activity %</t>
   </si>
   <si>
@@ -681,23 +678,17 @@
     <t>About Hungary combine in one budapest</t>
   </si>
   <si>
-    <t>Improve data for IE</t>
-  </si>
-  <si>
-    <t>Find better data for IE/PL/UK</t>
-  </si>
-  <si>
-    <t>Alteratively have a look also to ESPON should you need more data per NACE activity</t>
-  </si>
-  <si>
     <t>Ardeco needs to be divided by 12 annuities.  I combined the average here, or shoudl I just sum the absolute values</t>
+  </si>
+  <si>
+    <t>lfst_r_lfsd2pop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,8 +732,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -752,12 +753,13 @@
       <i/>
       <u/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,12 +799,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1048,13 +1044,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1063,16 +1056,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,6 +1403,9 @@
       </x:ext>
     </extLst>
   </threadedComment>
+  <threadedComment ref="D33" dT="2024-07-10T22:13:14.56" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{50FBF0FD-8E0B-4A4A-A131-D3377EB7D8BD}">
+    <text>Do the trick with labour force by educational attainment</text>
+  </threadedComment>
   <threadedComment ref="I33" dT="2024-07-05T13:09:39.00" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
     <text>Proxy: labour force by educational attainment</text>
   </threadedComment>
@@ -1425,7 +1418,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1457,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1488,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1502,7 +1495,7 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>80</v>
@@ -1512,14 +1505,14 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I4">
         <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1529,14 +1522,14 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I5">
         <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="42"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1544,14 +1537,14 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="42"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1559,14 +1552,14 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I7">
         <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1588,7 +1581,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1614,7 +1607,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1625,7 +1618,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="42"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1634,7 +1627,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="42"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1643,7 +1636,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="42"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1645,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="42"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1654,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="42"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1670,7 +1663,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="42"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1679,7 +1672,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="42"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1681,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="42"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1697,7 +1690,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="42"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1706,7 +1699,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="42"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1715,7 +1708,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="42"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +1717,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="42"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1733,7 +1726,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="42"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -1742,7 +1735,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="42"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -1751,7 +1744,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="42"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -1760,7 +1753,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="42"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -1769,7 +1762,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="42"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -1778,7 +1771,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="42"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -1787,7 +1780,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="42"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -1796,7 +1789,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="42"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -1805,7 +1798,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="42"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -1814,7 +1807,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="42"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -1823,7 +1816,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="42"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -1832,7 +1825,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="42"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -1841,7 +1834,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="42"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -1864,8 +1857,8 @@
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,7 +1866,7 @@
     <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="38" style="23" customWidth="1"/>
     <col min="3" max="11" width="14.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="25" style="4" customWidth="1"/>
     <col min="13" max="13" width="3.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="29.140625" style="4" customWidth="1"/>
   </cols>
@@ -1918,10 +1911,10 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>91</v>
@@ -2414,7 +2407,7 @@
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2453,7 +2446,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>135</v>
       </c>
@@ -2487,9 +2480,7 @@
       <c r="K16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="L16" s="1"/>
       <c r="N16" s="20" t="s">
         <v>148</v>
       </c>
@@ -2504,11 +2495,11 @@
       <c r="C17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>178</v>
+      <c r="D17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>91</v>
@@ -2516,7 +2507,9 @@
       <c r="G17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="45"/>
+      <c r="H17" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I17" s="12" t="s">
         <v>170</v>
       </c>
@@ -2526,9 +2519,7 @@
       <c r="K17" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L17" s="44" t="s">
-        <v>204</v>
-      </c>
+      <c r="L17" s="43"/>
       <c r="N17" s="31" t="s">
         <v>150</v>
       </c>
@@ -2543,11 +2534,11 @@
       <c r="C18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>178</v>
+      <c r="D18" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>91</v>
@@ -2555,7 +2546,9 @@
       <c r="G18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I18" s="12" t="s">
         <v>170</v>
       </c>
@@ -2565,7 +2558,7 @@
       <c r="K18" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L18" s="44"/>
+      <c r="L18" s="43"/>
       <c r="N18" s="31" t="s">
         <v>158</v>
       </c>
@@ -2580,11 +2573,11 @@
       <c r="C19" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>178</v>
+      <c r="D19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>91</v>
@@ -2592,7 +2585,9 @@
       <c r="G19" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I19" s="12" t="s">
         <v>170</v>
       </c>
@@ -2602,9 +2597,9 @@
       <c r="K19" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L19" s="44"/>
+      <c r="L19" s="43"/>
       <c r="N19" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2617,11 +2612,11 @@
       <c r="C20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>178</v>
+      <c r="D20" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>91</v>
@@ -2629,7 +2624,9 @@
       <c r="G20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I20" s="12" t="s">
         <v>170</v>
       </c>
@@ -2639,7 +2636,7 @@
       <c r="K20" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L20" s="44"/>
+      <c r="L20" s="43"/>
       <c r="N20" s="31" t="s">
         <v>171</v>
       </c>
@@ -2654,11 +2651,11 @@
       <c r="C21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>178</v>
+      <c r="D21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>91</v>
@@ -2666,7 +2663,9 @@
       <c r="G21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="46"/>
+      <c r="H21" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I21" s="12" t="s">
         <v>170</v>
       </c>
@@ -2676,7 +2675,7 @@
       <c r="K21" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L21" s="44"/>
+      <c r="L21" s="43"/>
       <c r="N21" s="31" t="s">
         <v>159</v>
       </c>
@@ -2691,11 +2690,11 @@
       <c r="C22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>178</v>
+      <c r="D22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>91</v>
@@ -2703,7 +2702,9 @@
       <c r="G22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I22" s="12" t="s">
         <v>170</v>
       </c>
@@ -2713,7 +2714,7 @@
       <c r="K22" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L22" s="44"/>
+      <c r="L22" s="43"/>
       <c r="N22" s="31" t="s">
         <v>172</v>
       </c>
@@ -2728,11 +2729,11 @@
       <c r="C23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>178</v>
+      <c r="D23" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>91</v>
@@ -2740,7 +2741,9 @@
       <c r="G23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I23" s="12" t="s">
         <v>170</v>
       </c>
@@ -2750,7 +2753,7 @@
       <c r="K23" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L23" s="44"/>
+      <c r="L23" s="43"/>
       <c r="N23" s="31" t="s">
         <v>97</v>
       </c>
@@ -2765,11 +2768,11 @@
       <c r="C24" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>178</v>
+      <c r="D24" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>91</v>
@@ -2777,7 +2780,9 @@
       <c r="G24" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I24" s="12" t="s">
         <v>170</v>
       </c>
@@ -2787,7 +2792,7 @@
       <c r="K24" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="44"/>
+      <c r="L24" s="43"/>
       <c r="N24" s="31" t="s">
         <v>168</v>
       </c>
@@ -2802,11 +2807,11 @@
       <c r="C25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>178</v>
+      <c r="D25" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>91</v>
@@ -2814,7 +2819,9 @@
       <c r="G25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I25" s="12" t="s">
         <v>170</v>
       </c>
@@ -2824,12 +2831,12 @@
       <c r="K25" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="44"/>
+      <c r="L25" s="43"/>
       <c r="N25" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>145</v>
       </c>
@@ -2839,11 +2846,11 @@
       <c r="C26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>178</v>
+      <c r="D26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>91</v>
@@ -2851,7 +2858,9 @@
       <c r="G26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I26" s="12" t="s">
         <v>170</v>
       </c>
@@ -2861,7 +2870,7 @@
       <c r="K26" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L26" s="44"/>
+      <c r="L26" s="43"/>
       <c r="N26" s="31" t="s">
         <v>165</v>
       </c>
@@ -2907,10 +2916,10 @@
     </row>
     <row r="28" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>91</v>
@@ -2940,7 +2949,7 @@
         <v>170</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="N28" s="31" t="s">
         <v>160</v>
@@ -2985,7 +2994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
@@ -3019,9 +3028,7 @@
       <c r="K30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L30" s="30" t="s">
-        <v>203</v>
-      </c>
+      <c r="L30" s="30"/>
       <c r="N30" s="31" t="s">
         <v>95</v>
       </c>
@@ -3060,11 +3067,9 @@
       <c r="K31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L31" s="30" t="s">
-        <v>202</v>
-      </c>
+      <c r="L31" s="30"/>
       <c r="N31" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3102,13 +3107,11 @@
         <v>173</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="N32" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="38"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>157</v>
@@ -3116,7 +3119,7 @@
       <c r="C33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="44" t="s">
         <v>173</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -3131,18 +3134,18 @@
       <c r="H33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="41" t="s">
         <v>173</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="44" t="s">
         <v>173</v>
       </c>
       <c r="L33" s="30"/>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>162</v>
       </c>
@@ -3152,8 +3155,8 @@
       <c r="C34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="42" t="s">
-        <v>198</v>
+      <c r="D34" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>96</v>
@@ -3173,22 +3176,22 @@
       <c r="J34" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="42" t="s">
-        <v>198</v>
+      <c r="K34" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="46" t="s">
         <v>173</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -3209,7 +3212,7 @@
       <c r="J35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="41" t="s">
+      <c r="K35" s="46" t="s">
         <v>173</v>
       </c>
       <c r="L35" s="30"/>
@@ -3219,7 +3222,7 @@
         <v>161</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>96</v>
@@ -3255,31 +3258,31 @@
         <v>83</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L37" s="1"/>
     </row>
@@ -3302,31 +3305,31 @@
         <v>98</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L39" s="1"/>
     </row>
@@ -3335,31 +3338,31 @@
         <v>81</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L40" s="1"/>
     </row>
@@ -3368,31 +3371,31 @@
         <v>104</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L41" s="1"/>
     </row>
@@ -3401,64 +3404,64 @@
         <v>100</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L43" s="1"/>
     </row>
@@ -3467,31 +3470,31 @@
         <v>99</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L44" s="5"/>
     </row>
@@ -3500,31 +3503,31 @@
         <v>167</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L45" s="5"/>
     </row>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A904EB5-827F-4B80-B16A-7AAD74B4A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB7397-BB12-4950-97E3-DEE280273F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -39,21 +39,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6CEC4F77-AFA3-4B85-8F68-BCDDD69F7A44}</author>
     <author>tc={7BFF2561-999D-4A95-A783-49486DDF8A1A}</author>
-    <author>tc={50FBF0FD-8E0B-4A4A-A131-D3377EB7D8BD}</author>
+    <author>tc={6E70E1CC-E364-45FA-B399-8EAE379F95F7}</author>
     <author>tc={CA158C09-B7BE-42D4-8E0A-6078876475BA}</author>
   </authors>
   <commentList>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{6CEC4F77-AFA3-4B85-8F68-BCDDD69F7A44}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Available also for some NACE activites. Not for all countries</t>
-      </text>
-    </comment>
-    <comment ref="N31" authorId="1" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+    <comment ref="N31" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,15 +52,15 @@
     RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </t>
       </text>
     </comment>
-    <comment ref="D33" authorId="2" shapeId="0" xr:uid="{50FBF0FD-8E0B-4A4A-A131-D3377EB7D8BD}">
+    <comment ref="B33" authorId="1" shapeId="0" xr:uid="{6E70E1CC-E364-45FA-B399-8EAE379F95F7}">
       <text>
-        <t>[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Do the trick with labour force by educational attainment</t>
+    Educational attainment statistics - Statistics Explained (europa.eu)  </t>
       </text>
     </comment>
-    <comment ref="I33" authorId="3" shapeId="0" xr:uid="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
+    <comment ref="I33" authorId="2" shapeId="0" xr:uid="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="203">
   <si>
     <t>Macedonia</t>
   </si>
@@ -420,9 +411,6 @@
     <t>SUVGD</t>
   </si>
   <si>
-    <t>GDP at current prices in EUR</t>
-  </si>
-  <si>
     <t>GVA current prices</t>
   </si>
   <si>
@@ -678,17 +666,29 @@
     <t>About Hungary combine in one budapest</t>
   </si>
   <si>
-    <t>Ardeco needs to be divided by 12 annuities.  I combined the average here, or shoudl I just sum the absolute values</t>
-  </si>
-  <si>
     <t>lfst_r_lfsd2pop</t>
+  </si>
+  <si>
+    <t>GDP at current prices</t>
+  </si>
+  <si>
+    <t>in EUR</t>
+  </si>
+  <si>
+    <t>in NCU</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Pag 49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,8 +758,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,18 +816,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -912,6 +930,150 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -926,10 +1088,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,30 +1110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,29 +1189,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1391,9 +1615,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B29" dT="2024-06-22T09:20:54.41" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{6CEC4F77-AFA3-4B85-8F68-BCDDD69F7A44}">
-    <text>Available also for some NACE activites. Not for all countries</text>
-  </threadedComment>
   <threadedComment ref="N31" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
     <text xml:space="preserve">RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </text>
     <extLst>
@@ -1403,8 +1624,14 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="D33" dT="2024-07-10T22:13:14.56" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{50FBF0FD-8E0B-4A4A-A131-D3377EB7D8BD}">
-    <text>Do the trick with labour force by educational attainment</text>
+  <threadedComment ref="B33" dT="2024-07-14T15:57:16.72" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{6E70E1CC-E364-45FA-B399-8EAE379F95F7}">
+    <text xml:space="preserve">Educational attainment statistics - Statistics Explained (europa.eu)  </text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3748739811</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="68" url="https://ec.europa.eu/eurostat/statistics-explained/index.php?title=Educational_attainment_statistics#Distribution_of_the_EU_population_by_educational_attainment_in_2023"/>
+      </x:ext>
+    </extLst>
   </threadedComment>
   <threadedComment ref="I33" dT="2024-07-05T13:09:39.00" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
     <text>Proxy: labour force by educational attainment</text>
@@ -1452,12 +1679,12 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="19"/>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1473,15 +1700,15 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <f>COUNTA(A2:A37 )</f>
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1495,24 +1722,24 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <f>COUNTA(B2:B37 )</f>
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I4">
         <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1522,14 +1749,14 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I5">
         <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="62"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1537,14 +1764,14 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="62"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1552,22 +1779,22 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7">
         <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="62"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>192</v>
+      <c r="H8" s="33" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1580,8 +1807,8 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="39" t="s">
-        <v>188</v>
+      <c r="H9" s="33" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1592,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1607,7 +1834,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="62" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1618,7 +1845,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="62"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1627,7 +1854,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="62"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +1863,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="62"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1872,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="62"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1654,7 +1881,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="62"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1663,7 +1890,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="62"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1672,7 +1899,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="62"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1908,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="62"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1690,7 +1917,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="62"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1699,7 +1926,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="62"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1708,7 +1935,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="62"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -1717,7 +1944,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="62"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1726,7 +1953,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="62"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -1735,7 +1962,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="62"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -1744,7 +1971,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="62"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +1980,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="62"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -1762,7 +1989,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="62"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -1771,7 +1998,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="62"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -1780,7 +2007,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="62"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -1789,7 +2016,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="62"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -1798,7 +2025,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="62"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -1807,7 +2034,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="62"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -1816,7 +2043,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="62"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -1825,7 +2052,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="62"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -1834,7 +2061,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="62"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -1856,53 +2083,53 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38" style="23" customWidth="1"/>
+    <col min="2" max="2" width="38" style="17" customWidth="1"/>
     <col min="3" max="11" width="14.42578125" style="4" customWidth="1"/>
     <col min="12" max="12" width="25" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="29.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="49" t="s">
         <v>107</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1911,76 +2138,76 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" s="30"/>
+        <v>189</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>173</v>
+      <c r="C3" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>172</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1988,1546 +2215,1552 @@
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="N4" s="33" t="s">
+      <c r="B4" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>170</v>
+        <v>124</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="29" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>125</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>126</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>170</v>
+        <v>127</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>128</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="25" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>129</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>170</v>
+        <v>130</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>131</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>132</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="N14" s="32" t="s">
-        <v>177</v>
+      <c r="N14" s="26" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>170</v>
+        <v>133</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>170</v>
+      <c r="C16" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="N16" s="20" t="s">
-        <v>148</v>
+      <c r="N16" s="14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" s="43"/>
-      <c r="N17" s="31" t="s">
-        <v>150</v>
+      <c r="I17" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" s="63"/>
+      <c r="N18" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="C19" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="F19" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" s="43"/>
-      <c r="N18" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="43"/>
-      <c r="N19" s="37" t="s">
-        <v>179</v>
+      <c r="I19" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="63"/>
+      <c r="N19" s="31" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="63"/>
+      <c r="N20" s="25" t="s">
         <v>170</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L20" s="43"/>
-      <c r="N20" s="31" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" s="43"/>
-      <c r="N21" s="31" t="s">
-        <v>159</v>
+      <c r="I21" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" s="63"/>
+      <c r="N21" s="25" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="F22" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L22" s="43"/>
-      <c r="N22" s="31" t="s">
-        <v>172</v>
+      <c r="I22" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="63"/>
+      <c r="N22" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L23" s="43"/>
-      <c r="N23" s="31" t="s">
+      <c r="I23" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="63"/>
+      <c r="N23" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="43"/>
-      <c r="N24" s="31" t="s">
-        <v>168</v>
+      <c r="I24" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="63"/>
+      <c r="N24" s="25" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="F25" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="43"/>
-      <c r="N25" s="31" t="s">
-        <v>180</v>
+      <c r="I25" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="63"/>
+      <c r="N25" s="25" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="43"/>
-      <c r="N26" s="31" t="s">
-        <v>165</v>
+      <c r="I26" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="63"/>
+      <c r="N26" s="25" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L27" s="30"/>
-      <c r="N27" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="C27" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="24"/>
+      <c r="N27" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="N28" s="31" t="s">
-        <v>160</v>
+      <c r="C28" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="N28" s="25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="N29" s="31" t="s">
-        <v>155</v>
+      <c r="C29" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" s="30"/>
-      <c r="N30" s="31" t="s">
+      <c r="I30" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="N30" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L31" s="30"/>
-      <c r="N31" s="31" t="s">
-        <v>185</v>
+      <c r="I31" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="N31" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="N32" s="32"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D33" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F33" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G33" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H33" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="N32" s="38"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="I33" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D34" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F34" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G34" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H34" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="I34" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="21" t="s">
+      <c r="J34" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="B35" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D35" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F35" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G35" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H35" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I35" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J35" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="K35" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D36" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F36" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G36" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H36" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K35" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="L35" s="30"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>170</v>
+      <c r="I36" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="58" t="s">
+        <v>169</v>
       </c>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>178</v>
+      <c r="C37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="B38" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>178</v>
+      <c r="C39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>178</v>
+      <c r="C40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>178</v>
+      <c r="C41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>178</v>
+      <c r="C42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>178</v>
+      <c r="B43" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>178</v>
+      <c r="C44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>178</v>
+      <c r="B45" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="L45" s="5"/>
     </row>
@@ -3535,194 +3768,194 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C47" s="8"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="8"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="8"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C50" s="15"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="8"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C53" s="8"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="8"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="15"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="8"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
+      <c r="C56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
+      <c r="C58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
+      <c r="C59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
+      <c r="C60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
-      <c r="D63" s="16"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3965,8 +4198,12 @@
     <mergeCell ref="L17:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L33" r:id="rId1" location="Background" xr:uid="{8FF1186A-DDDF-487F-B203-63F5C2542527}"/>
+    <hyperlink ref="L17:L26" r:id="rId2" display="Pag 49" xr:uid="{9450B7AE-107A-4F25-9626-B789C71685CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB7397-BB12-4950-97E3-DEE280273F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F2D5E-722B-481F-A0DA-39577BBE86A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="203">
   <si>
     <t>Macedonia</t>
   </si>
@@ -654,9 +654,6 @@
     <t>Economic Activity %</t>
   </si>
   <si>
-    <t>ETF</t>
-  </si>
-  <si>
     <t>About Ireland keep alternative</t>
   </si>
   <si>
@@ -682,13 +679,16 @@
   </si>
   <si>
     <t>Pag 49</t>
+  </si>
+  <si>
+    <t>ETF document for AL and BA as alternative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,15 +733,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -775,12 +766,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -816,12 +801,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1072,27 +1057,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,9 +1222,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,25 +1234,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1732,14 +1699,14 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I4">
         <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1756,7 +1723,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1764,14 +1731,14 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1779,14 +1746,14 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7">
         <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1801,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1845,7 +1812,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1854,7 +1821,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1863,7 +1830,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1872,7 +1839,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="63"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1881,7 +1848,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="63"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1890,7 +1857,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1899,7 +1866,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1908,7 +1875,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="63"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1917,7 +1884,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1926,7 +1893,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="63"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1935,7 +1902,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="63"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -1944,7 +1911,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1953,7 +1920,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -1962,7 +1929,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="63"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -1971,7 +1938,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="63"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -1980,7 +1947,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +1956,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -1998,7 +1965,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -2007,7 +1974,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2016,7 +1983,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="63"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -2025,7 +1992,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="63"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -2034,7 +2001,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
+      <c r="A34" s="63"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -2043,7 +2010,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="63"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -2052,7 +2019,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="63"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -2061,7 +2028,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="63"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2084,8 +2051,8 @@
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,37 +2183,37 @@
         <v>111</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>84</v>
@@ -2745,11 +2712,11 @@
       <c r="J17" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="63" t="s">
-        <v>202</v>
+      <c r="K17" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>201</v>
       </c>
       <c r="N17" s="25" t="s">
         <v>149</v>
@@ -2786,10 +2753,10 @@
       <c r="J18" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" s="63"/>
+      <c r="K18" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" s="64"/>
       <c r="N18" s="25" t="s">
         <v>157</v>
       </c>
@@ -2825,10 +2792,10 @@
       <c r="J19" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K19" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="63"/>
+      <c r="K19" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="64"/>
       <c r="N19" s="31" t="s">
         <v>178</v>
       </c>
@@ -2864,10 +2831,10 @@
       <c r="J20" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K20" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="63"/>
+      <c r="K20" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="64"/>
       <c r="N20" s="25" t="s">
         <v>170</v>
       </c>
@@ -2903,10 +2870,10 @@
       <c r="J21" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" s="63"/>
+      <c r="K21" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" s="64"/>
       <c r="N21" s="25" t="s">
         <v>158</v>
       </c>
@@ -2942,10 +2909,10 @@
       <c r="J22" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="63"/>
+      <c r="K22" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="64"/>
       <c r="N22" s="25" t="s">
         <v>171</v>
       </c>
@@ -2981,10 +2948,10 @@
       <c r="J23" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="63"/>
+      <c r="K23" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="64"/>
       <c r="N23" s="25" t="s">
         <v>97</v>
       </c>
@@ -3020,10 +2987,10 @@
       <c r="J24" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="63"/>
+      <c r="K24" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="64"/>
       <c r="N24" s="25" t="s">
         <v>167</v>
       </c>
@@ -3059,10 +3026,10 @@
       <c r="J25" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="63"/>
+      <c r="K25" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="64"/>
       <c r="N25" s="25" t="s">
         <v>179</v>
       </c>
@@ -3098,10 +3065,10 @@
       <c r="J26" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="63"/>
+      <c r="K26" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="64"/>
       <c r="N26" s="25" t="s">
         <v>164</v>
       </c>
@@ -3131,14 +3098,14 @@
       <c r="H27" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="K27" s="53" t="s">
-        <v>172</v>
+      <c r="I27" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="L27" s="24"/>
       <c r="N27" s="25" t="s">
@@ -3219,7 +3186,7 @@
         <v>172</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N29" s="25" t="s">
         <v>154</v>
@@ -3341,8 +3308,8 @@
       <c r="N32" s="32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
-        <v>197</v>
+      <c r="A33" s="60" t="s">
+        <v>196</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>156</v>
@@ -3350,7 +3317,7 @@
       <c r="C33" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="61" t="s">
         <v>172</v>
       </c>
       <c r="E33" s="39" t="s">
@@ -3365,20 +3332,20 @@
       <c r="H33" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="64" t="s">
+      <c r="K33" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>161</v>
       </c>
@@ -3388,8 +3355,8 @@
       <c r="C34" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="66" t="s">
-        <v>193</v>
+      <c r="D34" s="61" t="s">
+        <v>172</v>
       </c>
       <c r="E34" s="39" t="s">
         <v>96</v>
@@ -3409,10 +3376,12 @@
       <c r="J34" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="L34" s="1"/>
+      <c r="K34" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -3424,7 +3393,7 @@
       <c r="C35" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="62" t="s">
         <v>172</v>
       </c>
       <c r="E35" s="39" t="s">
@@ -3445,7 +3414,7 @@
       <c r="J35" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="62" t="s">
         <v>172</v>
       </c>
       <c r="L35" s="24"/>
@@ -3475,13 +3444,13 @@
       <c r="H36" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="K36" s="58" t="s">
+      <c r="I36" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L36" s="1"/>
@@ -4208,11 +4177,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4405,27 +4375,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4450,9 +4410,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F2D5E-722B-481F-A0DA-39577BBE86A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66D192-0ACF-4EAA-9546-5E4C45F7FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={CA158C09-B7BE-42D4-8E0A-6078876475BA}</author>
   </authors>
   <commentList>
-    <comment ref="N31" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+    <comment ref="N30" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="201">
   <si>
     <t>Macedonia</t>
   </si>
@@ -612,9 +612,6 @@
     <t>R&amp;D personnel and researchers/htech employment</t>
   </si>
   <si>
-    <t>Productivity</t>
-  </si>
-  <si>
     <t>BA00</t>
   </si>
   <si>
@@ -663,18 +660,9 @@
     <t>About Hungary combine in one budapest</t>
   </si>
   <si>
-    <t>lfst_r_lfsd2pop</t>
-  </si>
-  <si>
     <t>GDP at current prices</t>
   </si>
   <si>
-    <t>in EUR</t>
-  </si>
-  <si>
-    <t>in NCU</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -682,13 +670,19 @@
   </si>
   <si>
     <t>ETF document for AL and BA as alternative</t>
+  </si>
+  <si>
+    <t>edat_lfse_04</t>
+  </si>
+  <si>
+    <t>Improve data for DE/AT/PL/UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,14 +721,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -806,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1057,12 +1043,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1155,9 +1204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,25 +1280,52 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1582,7 +1655,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N31" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+  <threadedComment ref="N30" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
     <text xml:space="preserve">RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1651,7 +1724,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1675,7 +1748,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1689,7 +1762,7 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>80</v>
@@ -1699,7 +1772,7 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I4">
         <v>2013</v>
@@ -1716,7 +1789,7 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I5">
         <v>2016</v>
@@ -1731,7 +1804,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I6">
         <v>2013</v>
@@ -1746,7 +1819,7 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I7">
         <v>2013</v>
@@ -1760,8 +1833,8 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>191</v>
+      <c r="H8" s="32" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1774,8 +1847,8 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>187</v>
+      <c r="H9" s="32" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1786,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,8 +2124,8 @@
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B37:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,31 +2145,31 @@
       <c r="B1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>107</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2105,36 +2178,36 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="51" t="s">
+      <c r="C2" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L2" s="24"/>
@@ -2146,31 +2219,31 @@
       <c r="B3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="50" t="s">
+      <c r="C3" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="50" t="s">
         <v>172</v>
       </c>
       <c r="L3" s="5"/>
@@ -2183,38 +2256,36 @@
         <v>111</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="N4" s="27" t="s">
         <v>84</v>
       </c>
@@ -2226,31 +2297,31 @@
       <c r="B5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="51" t="s">
+      <c r="C5" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L5" s="1"/>
@@ -2265,31 +2336,31 @@
       <c r="B6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" s="51" t="s">
+      <c r="C6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L6" s="1"/>
@@ -2304,31 +2375,31 @@
       <c r="B7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="51" t="s">
+      <c r="C7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L7" s="1"/>
@@ -2343,31 +2414,31 @@
       <c r="B8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="51" t="s">
+      <c r="C8" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L8" s="1"/>
@@ -2379,31 +2450,31 @@
       <c r="B9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="51" t="s">
+      <c r="C9" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L9" s="1"/>
@@ -2418,31 +2489,31 @@
       <c r="B10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" s="51" t="s">
+      <c r="C10" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L10" s="1"/>
@@ -2457,31 +2528,31 @@
       <c r="B11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="51" t="s">
+      <c r="C11" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L11" s="1"/>
@@ -2496,31 +2567,31 @@
       <c r="B12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="51" t="s">
+      <c r="C12" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L12" s="1"/>
@@ -2535,31 +2606,31 @@
       <c r="B13" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="51" t="s">
+      <c r="C13" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L13" s="1"/>
@@ -2574,31 +2645,31 @@
       <c r="B14" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="51" t="s">
+      <c r="C14" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L14" s="1"/>
@@ -2613,31 +2684,31 @@
       <c r="B15" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="51" t="s">
+      <c r="C15" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L15" s="1"/>
@@ -2649,31 +2720,31 @@
       <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="51" t="s">
+      <c r="C16" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L16" s="1"/>
@@ -2688,35 +2759,35 @@
       <c r="B17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="36" t="s">
+      <c r="F17" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K17" s="58" t="s">
+      <c r="I17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N17" s="25" t="s">
         <v>149</v>
@@ -2729,31 +2800,31 @@
       <c r="B18" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="36" t="s">
+      <c r="F18" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="58" t="s">
+      <c r="I18" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L18" s="64"/>
@@ -2768,31 +2839,31 @@
       <c r="B19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="36" t="s">
+      <c r="F19" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="58" t="s">
+      <c r="I19" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L19" s="64"/>
@@ -2807,31 +2878,31 @@
       <c r="B20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="36" t="s">
+      <c r="F20" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="58" t="s">
+      <c r="I20" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L20" s="64"/>
@@ -2846,31 +2917,31 @@
       <c r="B21" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="37" t="s">
+      <c r="C21" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="36" t="s">
+      <c r="F21" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K21" s="58" t="s">
+      <c r="I21" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L21" s="64"/>
@@ -2885,31 +2956,31 @@
       <c r="B22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="36" t="s">
+      <c r="F22" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="58" t="s">
+      <c r="I22" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L22" s="64"/>
@@ -2924,31 +2995,31 @@
       <c r="B23" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="36" t="s">
+      <c r="F23" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K23" s="58" t="s">
+      <c r="I23" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L23" s="64"/>
@@ -2963,31 +3034,31 @@
       <c r="B24" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="37" t="s">
+      <c r="C24" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="36" t="s">
+      <c r="F24" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="58" t="s">
+      <c r="I24" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L24" s="64"/>
@@ -3002,36 +3073,36 @@
       <c r="B25" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="36" t="s">
+      <c r="F25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" s="58" t="s">
+      <c r="I25" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L25" s="64"/>
       <c r="N25" s="25" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3041,36 +3112,36 @@
       <c r="B26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="36" t="s">
+      <c r="F26" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="58" t="s">
+      <c r="I26" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="57" t="s">
         <v>169</v>
       </c>
       <c r="L26" s="64"/>
       <c r="N26" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3080,75 +3151,75 @@
       <c r="B27" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K27" s="38" t="s">
+      <c r="C27" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="37" t="s">
         <v>169</v>
       </c>
       <c r="L27" s="24"/>
       <c r="N27" s="25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" s="51" t="s">
+      <c r="C28" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="50" t="s">
         <v>169</v>
       </c>
       <c r="L28" s="24"/>
       <c r="N28" s="25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3158,77 +3229,75 @@
       <c r="B29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="52" t="s">
+      <c r="C29" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="L29" s="1"/>
       <c r="N29" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="50" t="s">
         <v>172</v>
       </c>
       <c r="L30" s="24"/>
-      <c r="N30" s="25" t="s">
-        <v>95</v>
+      <c r="N30" s="26" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3238,37 +3307,34 @@
       <c r="B31" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="50" t="s">
         <v>172</v>
       </c>
       <c r="L31" s="24"/>
-      <c r="N31" s="25" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -3277,180 +3343,181 @@
       <c r="B32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="54" t="s">
+      <c r="I32" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="52" t="s">
         <v>172</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="N32" s="32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
-        <v>196</v>
+      <c r="A33" s="62" t="s">
+        <v>199</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="61" t="s">
+      <c r="K33" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="L33" s="58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="54" t="s">
+      <c r="I34" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="60" t="s">
         <v>172</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="54" t="s">
+      <c r="I35" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="62" t="s">
+      <c r="K35" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="L35" s="24"/>
+      <c r="L35" s="24" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="46" t="s">
+      <c r="D36" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="K36" s="57" t="s">
+      <c r="I36" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="56" t="s">
         <v>169</v>
       </c>
       <c r="L36" s="1"/>
@@ -3636,7 +3703,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>177</v>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66D192-0ACF-4EAA-9546-5E4C45F7FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADD56B7-BD57-45A9-897E-60FEEE8426D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -573,9 +573,6 @@
     <t>Available bed hospitals</t>
   </si>
   <si>
-    <t>Distance to FRK</t>
-  </si>
-  <si>
     <t>Patents</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>Improve data for DE/AT/PL/UK</t>
+  </si>
+  <si>
+    <t>EU Membership</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,37 +1295,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1724,7 +1727,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1748,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1762,7 +1765,7 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>80</v>
@@ -1772,14 +1775,14 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I4">
         <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="72" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1789,14 +1792,14 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I5">
         <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
+      <c r="A6" s="72"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1804,14 +1807,14 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1819,14 +1822,14 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I7">
         <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="72"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1859,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1874,7 +1877,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="72" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1885,7 +1888,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="72"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1894,7 +1897,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="72"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1903,7 +1906,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="72"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1912,7 +1915,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+      <c r="A16" s="72"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1921,7 +1924,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="72"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1930,7 +1933,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="72"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1939,7 +1942,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="72"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1948,7 +1951,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="72"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1957,7 +1960,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
+      <c r="A21" s="72"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1966,7 +1969,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="72"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1975,7 +1978,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="72"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -1984,7 +1987,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="72"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1993,7 +1996,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="72"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -2002,7 +2005,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="72"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -2011,7 +2014,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="A27" s="72"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -2020,7 +2023,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="72"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2029,7 +2032,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
+      <c r="A29" s="72"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -2038,7 +2041,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
+      <c r="A30" s="72"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -2047,7 +2050,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
+      <c r="A31" s="72"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2056,7 +2059,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
+      <c r="A32" s="72"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -2065,7 +2068,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
+      <c r="A33" s="72"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -2074,7 +2077,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
+      <c r="A34" s="72"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -2083,7 +2086,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
+      <c r="A35" s="72"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -2092,7 +2095,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
+      <c r="A36" s="72"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -2101,7 +2104,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+      <c r="A37" s="72"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2121,11 +2124,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4918A90-F1AE-4A78-BE56-1B0A62F131CD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B37:B45"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,10 +2181,10 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>91</v>
@@ -2202,13 +2205,13 @@
         <v>91</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L2" s="24"/>
     </row>
@@ -2238,13 +2241,13 @@
         <v>91</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="14" t="s">
@@ -2256,7 +2259,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>91</v>
@@ -2277,13 +2280,13 @@
         <v>91</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="27" t="s">
@@ -2316,13 +2319,13 @@
         <v>91</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="28" t="s">
@@ -2355,13 +2358,13 @@
         <v>91</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="29" t="s">
@@ -2394,13 +2397,13 @@
         <v>91</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="30" t="s">
@@ -2433,13 +2436,13 @@
         <v>91</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -2469,13 +2472,13 @@
         <v>91</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="14" t="s">
@@ -2508,13 +2511,13 @@
         <v>91</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="25" t="s">
@@ -2547,13 +2550,13 @@
         <v>91</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="25" t="s">
@@ -2586,13 +2589,13 @@
         <v>91</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="25" t="s">
@@ -2625,13 +2628,13 @@
         <v>91</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L13" s="1"/>
       <c r="N13" s="25" t="s">
@@ -2664,17 +2667,17 @@
         <v>91</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2703,13 +2706,13 @@
         <v>91</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -2739,13 +2742,13 @@
         <v>91</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L16" s="1"/>
       <c r="N16" s="14" t="s">
@@ -2763,7 +2766,7 @@
         <v>91</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>103</v>
@@ -2778,16 +2781,16 @@
         <v>96</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="64" t="s">
-        <v>197</v>
+        <v>168</v>
+      </c>
+      <c r="L17" s="73" t="s">
+        <v>196</v>
       </c>
       <c r="N17" s="25" t="s">
         <v>149</v>
@@ -2804,7 +2807,7 @@
         <v>91</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>103</v>
@@ -2819,15 +2822,15 @@
         <v>96</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="L18" s="73"/>
       <c r="N18" s="25" t="s">
         <v>157</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>91</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>103</v>
@@ -2858,17 +2861,17 @@
         <v>96</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="L19" s="73"/>
       <c r="N19" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2882,7 +2885,7 @@
         <v>91</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>103</v>
@@ -2897,17 +2900,17 @@
         <v>96</v>
       </c>
       <c r="I20" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="73"/>
+      <c r="N20" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="64"/>
-      <c r="N20" s="25" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2921,7 +2924,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>103</v>
@@ -2936,15 +2939,15 @@
         <v>96</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K21" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="L21" s="73"/>
       <c r="N21" s="25" t="s">
         <v>158</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>91</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>103</v>
@@ -2975,17 +2978,17 @@
         <v>96</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K22" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="L22" s="73"/>
       <c r="N22" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2999,7 +3002,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>103</v>
@@ -3014,15 +3017,15 @@
         <v>96</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K23" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="L23" s="73"/>
       <c r="N23" s="25" t="s">
         <v>97</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>91</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>103</v>
@@ -3053,17 +3056,17 @@
         <v>96</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K24" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="L24" s="73"/>
       <c r="N24" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3077,7 +3080,7 @@
         <v>91</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>103</v>
@@ -3092,15 +3095,15 @@
         <v>96</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="L25" s="73"/>
       <c r="N25" s="25" t="s">
         <v>164</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>103</v>
@@ -3131,15 +3134,15 @@
         <v>96</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="L26" s="73"/>
       <c r="N26" s="25" t="s">
         <v>165</v>
       </c>
@@ -3170,13 +3173,13 @@
         <v>91</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L27" s="24"/>
       <c r="N27" s="25" t="s">
@@ -3185,16 +3188,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="C28" s="41" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>91</v>
@@ -3209,13 +3212,13 @@
         <v>91</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L28" s="24"/>
       <c r="N28" s="25" t="s">
@@ -3227,7 +3230,7 @@
         <v>148</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>91</v>
@@ -3248,13 +3251,13 @@
         <v>91</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L29" s="1"/>
       <c r="N29" s="25" t="s">
@@ -3272,7 +3275,7 @@
         <v>96</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>96</v>
@@ -3287,17 +3290,17 @@
         <v>96</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L30" s="24"/>
       <c r="N30" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3311,7 +3314,7 @@
         <v>96</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>96</v>
@@ -3326,13 +3329,13 @@
         <v>96</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K31" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L31" s="24"/>
     </row>
@@ -3347,7 +3350,7 @@
         <v>96</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>96</v>
@@ -3362,19 +3365,19 @@
         <v>96</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K32" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>156</v>
@@ -3383,7 +3386,7 @@
         <v>96</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>96</v>
@@ -3398,16 +3401,16 @@
         <v>96</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J33" s="37" t="s">
         <v>103</v>
       </c>
       <c r="K33" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L33" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3421,7 +3424,7 @@
         <v>96</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>96</v>
@@ -3442,48 +3445,48 @@
         <v>103</v>
       </c>
       <c r="K34" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="67" t="s">
+      <c r="B35" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="69" t="s">
+      <c r="D35" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="71" t="s">
+      <c r="I35" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="73" t="s">
-        <v>172</v>
+      <c r="K35" s="71" t="s">
+        <v>171</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3491,13 +3494,13 @@
         <v>160</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="43" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E36" s="45" t="s">
         <v>96</v>
@@ -3512,13 +3515,13 @@
         <v>96</v>
       </c>
       <c r="I36" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L36" s="1"/>
     </row>
@@ -3527,46 +3530,47 @@
         <v>83</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3574,257 +3578,257 @@
         <v>98</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>177</v>
-      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L44" s="5"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L45" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L46" s="5"/>
+      <c r="B46" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="5"/>
+      <c r="B47" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -3840,10 +3844,10 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C50" s="9"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="7"/>
@@ -3852,40 +3856,40 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -3895,8 +3899,9 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="9"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -3906,39 +3911,40 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="9"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="9"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="5"/>
@@ -3948,7 +3954,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3957,63 +3963,63 @@
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="9"/>
+      <c r="C61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -4058,7 +4064,6 @@
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
-      <c r="D69" s="6"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -4081,6 +4086,7 @@
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -4136,7 +4142,6 @@
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
-      <c r="D76" s="6"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -4159,6 +4164,7 @@
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4169,9 +4175,25 @@
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.25">
@@ -4187,13 +4209,13 @@
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D85" s="6"/>
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D87" s="6"/>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="4:12" x14ac:dyDescent="0.25">
@@ -4228,6 +4250,12 @@
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L100" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4244,12 +4272,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4442,17 +4469,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4477,18 +4514,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADD56B7-BD57-45A9-897E-60FEEE8426D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FACAF9-E1AF-4046-9B99-13D195FB6291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -42,6 +42,7 @@
     <author>tc={7BFF2561-999D-4A95-A783-49486DDF8A1A}</author>
     <author>tc={6E70E1CC-E364-45FA-B399-8EAE379F95F7}</author>
     <author>tc={CA158C09-B7BE-42D4-8E0A-6078876475BA}</author>
+    <author>tc={9E064D94-29F8-4852-9D37-D8A3241C2190}</author>
   </authors>
   <commentList>
     <comment ref="N30" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
@@ -68,12 +69,20 @@
     Proxy: labour force by educational attainment</t>
       </text>
     </comment>
+    <comment ref="B43" authorId="3" shapeId="0" xr:uid="{9E064D94-29F8-4852-9D37-D8A3241C2190}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Address mismatching in the map and list of official document</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="199">
   <si>
     <t>Macedonia</t>
   </si>
@@ -318,9 +327,6 @@
     <t>Regions</t>
   </si>
   <si>
-    <t>CEFTA membership</t>
-  </si>
-  <si>
     <t>Time frame</t>
   </si>
   <si>
@@ -375,9 +381,6 @@
     <t>Distance to capital</t>
   </si>
   <si>
-    <t>Border EU</t>
-  </si>
-  <si>
     <t>2006/2010</t>
   </si>
   <si>
@@ -387,9 +390,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>Nato Membership</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -676,13 +676,16 @@
   </si>
   <si>
     <t>EU Membership</t>
+  </si>
+  <si>
+    <t>Objective 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +755,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1111,7 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,14 +1338,20 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1679,6 +1701,9 @@
   <threadedComment ref="I33" dT="2024-07-05T13:09:39.00" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
     <text>Proxy: labour force by educational attainment</text>
   </threadedComment>
+  <threadedComment ref="B43" dT="2024-07-28T10:57:48.91" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{9E064D94-29F8-4852-9D37-D8A3241C2190}">
+    <text>Address mismatching in the map and list of official document</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1727,7 +1752,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1751,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1762,10 +1787,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>80</v>
@@ -1775,14 +1800,14 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I4">
         <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1792,14 +1817,14 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I5">
         <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1807,14 +1832,14 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1822,14 +1847,14 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I7">
         <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1862,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1851,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1862,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,7 +1902,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1888,7 +1913,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1897,7 +1922,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +1931,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1915,7 +1940,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +1949,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1933,7 +1958,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1942,7 +1967,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1951,7 +1976,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1960,7 +1985,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +1994,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1978,7 +2003,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -1987,7 +2012,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1996,7 +2021,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -2005,7 +2030,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -2014,7 +2039,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -2023,7 +2048,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2032,7 +2057,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -2041,7 +2066,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -2050,7 +2075,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +2084,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
+      <c r="A32" s="73"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -2068,7 +2093,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -2077,7 +2102,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -2086,7 +2111,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -2095,7 +2120,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -2104,7 +2129,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2124,11 +2149,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4918A90-F1AE-4A78-BE56-1B0A62F131CD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,13 +2171,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>108</v>
-      </c>
       <c r="D1" s="40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>1</v>
@@ -2173,1671 +2198,1632 @@
         <v>5</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L13" s="1"/>
       <c r="N13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L16" s="1"/>
       <c r="N16" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="73" t="s">
-        <v>196</v>
+        <v>165</v>
+      </c>
+      <c r="L17" s="74" t="s">
+        <v>193</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="73"/>
+        <v>165</v>
+      </c>
+      <c r="L18" s="74"/>
       <c r="N18" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" s="73"/>
+        <v>165</v>
+      </c>
+      <c r="L19" s="74"/>
       <c r="N19" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K20" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L20" s="73"/>
+        <v>165</v>
+      </c>
+      <c r="L20" s="74"/>
       <c r="N20" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K21" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L21" s="73"/>
+        <v>165</v>
+      </c>
+      <c r="L21" s="74"/>
       <c r="N21" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K22" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L22" s="73"/>
+        <v>165</v>
+      </c>
+      <c r="L22" s="74"/>
       <c r="N22" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="74"/>
+      <c r="N23" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="K23" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" s="73"/>
-      <c r="N23" s="25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K24" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="73"/>
+        <v>165</v>
+      </c>
+      <c r="L24" s="74"/>
       <c r="N24" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="73"/>
+        <v>165</v>
+      </c>
+      <c r="L25" s="74"/>
       <c r="N25" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K26" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="73"/>
+        <v>165</v>
+      </c>
+      <c r="L26" s="74"/>
       <c r="N26" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L27" s="24"/>
       <c r="N27" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L28" s="24"/>
       <c r="N28" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L29" s="1"/>
       <c r="N29" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L30" s="24"/>
       <c r="N30" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K31" s="50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K32" s="52" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K33" s="59" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L33" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I34" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J34" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K34" s="60" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I35" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J35" s="70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
+      <c r="B38" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="1"/>
+      <c r="B43" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L43" s="75" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="L45" s="1"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="L46" s="1"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="L47" s="1"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -3848,8 +3834,8 @@
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -3860,166 +3846,161 @@
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="9"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="K52" s="9"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="7"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="C62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="C63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="C64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
-      <c r="D65" s="10"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -4042,6 +4023,7 @@
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -4086,7 +4068,6 @@
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
-      <c r="D71" s="6"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -4120,6 +4101,7 @@
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -4152,48 +4134,15 @@
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C78" s="1"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.25">
@@ -4203,6 +4152,7 @@
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D83" s="6"/>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
@@ -4215,7 +4165,6 @@
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D87" s="6"/>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="4:12" x14ac:dyDescent="0.25">
@@ -4244,18 +4193,6 @@
     </row>
     <row r="96" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L100" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4265,18 +4202,20 @@
   <hyperlinks>
     <hyperlink ref="L33" r:id="rId1" location="Background" xr:uid="{8FF1186A-DDDF-487F-B203-63F5C2542527}"/>
     <hyperlink ref="L17:L26" r:id="rId2" display="Pag 49" xr:uid="{9450B7AE-107A-4F25-9626-B789C71685CE}"/>
+    <hyperlink ref="L43" r:id="rId3" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4469,27 +4408,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4514,9 +4443,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FACAF9-E1AF-4046-9B99-13D195FB6291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014EE8BE-A8C0-4845-A82B-50259865ABC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <author>tc={9E064D94-29F8-4852-9D37-D8A3241C2190}</author>
   </authors>
   <commentList>
-    <comment ref="N30" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="198">
   <si>
     <t>Macedonia</t>
   </si>
@@ -546,9 +546,6 @@
     <t>Population by educational attainement</t>
   </si>
   <si>
-    <t>Students by level of education</t>
-  </si>
-  <si>
     <t>Gerd</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>lfst_r_lfu3pers</t>
   </si>
   <si>
-    <t>Internet</t>
-  </si>
-  <si>
     <t>Available bed hospitals</t>
   </si>
   <si>
@@ -582,9 +576,6 @@
     <t>o</t>
   </si>
   <si>
-    <t>Investment</t>
-  </si>
-  <si>
     <t>Trade/FDI</t>
   </si>
   <si>
@@ -606,9 +597,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>R&amp;D personnel and researchers/htech employment</t>
-  </si>
-  <si>
     <t>BA00</t>
   </si>
   <si>
@@ -679,13 +667,22 @@
   </si>
   <si>
     <t>Objective 1</t>
+  </si>
+  <si>
+    <t>Distance from BRUX</t>
+  </si>
+  <si>
+    <t>IDW Matrix</t>
+  </si>
+  <si>
+    <t>R&amp;D/High tech employment-professionals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,12 +759,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1127,7 +1118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,18 +1332,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1680,7 +1672,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N30" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+  <threadedComment ref="N27" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
     <text xml:space="preserve">RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1752,7 +1744,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1776,7 +1768,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1790,7 +1782,7 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>80</v>
@@ -1800,14 +1792,14 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I4">
         <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1817,14 +1809,14 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I5">
         <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="75"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1832,14 +1824,14 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
+      <c r="A7" s="75"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1847,14 +1839,14 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I7">
         <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+      <c r="A8" s="75"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1862,7 +1854,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1876,7 +1868,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1887,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1902,7 +1894,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="75" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1913,7 +1905,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="75"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1922,7 +1914,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
+      <c r="A14" s="75"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1931,7 +1923,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="75"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1940,7 +1932,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="75"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1949,7 +1941,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="75"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1958,7 +1950,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="75"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1967,7 +1959,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
+      <c r="A19" s="75"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1976,7 +1968,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
+      <c r="A20" s="75"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1985,7 +1977,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
+      <c r="A21" s="75"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1994,7 +1986,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="75"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -2003,7 +1995,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
+      <c r="A23" s="75"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -2012,7 +2004,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
+      <c r="A24" s="75"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -2021,7 +2013,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="75"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -2030,7 +2022,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+      <c r="A26" s="75"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -2039,7 +2031,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+      <c r="A27" s="75"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -2048,7 +2040,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="75"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2057,7 +2049,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
+      <c r="A29" s="75"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -2066,7 +2058,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="75"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -2075,7 +2067,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
+      <c r="A31" s="75"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2084,7 +2076,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
+      <c r="A32" s="75"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -2093,7 +2085,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
+      <c r="A33" s="75"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -2102,7 +2094,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
+      <c r="A34" s="75"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -2111,7 +2103,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
+      <c r="A35" s="75"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -2120,7 +2112,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
+      <c r="A36" s="75"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -2129,7 +2121,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
+      <c r="A37" s="75"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2152,8 +2144,8 @@
   <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,10 +2198,10 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>90</v>
@@ -2230,13 +2222,13 @@
         <v>90</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L2" s="24"/>
     </row>
@@ -2266,13 +2258,13 @@
         <v>90</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="14" t="s">
@@ -2284,7 +2276,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>90</v>
@@ -2305,13 +2297,13 @@
         <v>90</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="27" t="s">
@@ -2344,13 +2336,13 @@
         <v>90</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="28" t="s">
@@ -2383,13 +2375,13 @@
         <v>90</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="29" t="s">
@@ -2422,13 +2414,13 @@
         <v>90</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="30" t="s">
@@ -2461,13 +2453,13 @@
         <v>90</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -2497,13 +2489,13 @@
         <v>90</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="14" t="s">
@@ -2536,13 +2528,13 @@
         <v>90</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="25" t="s">
@@ -2575,13 +2567,13 @@
         <v>90</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="25" t="s">
@@ -2614,13 +2606,13 @@
         <v>90</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="25" t="s">
@@ -2653,13 +2645,13 @@
         <v>90</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L13" s="1"/>
       <c r="N13" s="25" t="s">
@@ -2692,17 +2684,17 @@
         <v>90</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2731,13 +2723,13 @@
         <v>90</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -2767,13 +2759,13 @@
         <v>90</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L16" s="1"/>
       <c r="N16" s="14" t="s">
@@ -2791,7 +2783,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>101</v>
@@ -2806,22 +2798,22 @@
         <v>95</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="74" t="s">
-        <v>193</v>
+        <v>163</v>
+      </c>
+      <c r="L17" s="76" t="s">
+        <v>189</v>
       </c>
       <c r="N17" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>133</v>
       </c>
@@ -2832,7 +2824,7 @@
         <v>90</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>101</v>
@@ -2847,20 +2839,20 @@
         <v>95</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" s="74"/>
-      <c r="N18" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="L18" s="76"/>
+      <c r="N18" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>134</v>
       </c>
@@ -2871,7 +2863,7 @@
         <v>90</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>101</v>
@@ -2886,17 +2878,17 @@
         <v>95</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" s="74"/>
-      <c r="N19" s="31" t="s">
-        <v>174</v>
+        <v>163</v>
+      </c>
+      <c r="L19" s="76"/>
+      <c r="N19" s="25" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2910,7 +2902,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>101</v>
@@ -2925,17 +2917,17 @@
         <v>95</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K20" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="L20" s="76"/>
       <c r="N20" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2949,7 +2941,7 @@
         <v>90</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>101</v>
@@ -2964,17 +2956,17 @@
         <v>95</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K21" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="L21" s="76"/>
       <c r="N21" s="25" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2988,7 +2980,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>101</v>
@@ -3003,17 +2995,17 @@
         <v>95</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K22" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="L22" s="76"/>
       <c r="N22" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3027,7 +3019,7 @@
         <v>90</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>101</v>
@@ -3042,17 +3034,17 @@
         <v>95</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K23" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="L23" s="76"/>
       <c r="N23" s="25" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3066,7 +3058,7 @@
         <v>90</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>101</v>
@@ -3081,17 +3073,17 @@
         <v>95</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K24" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="L24" s="76"/>
       <c r="N24" s="25" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3105,7 +3097,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>101</v>
@@ -3120,17 +3112,17 @@
         <v>95</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="L25" s="76"/>
       <c r="N25" s="25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3144,7 +3136,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>101</v>
@@ -3159,20 +3151,20 @@
         <v>95</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K26" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L26" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="L26" s="76"/>
       <c r="N26" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>142</v>
       </c>
@@ -3198,31 +3190,31 @@
         <v>90</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L27" s="24"/>
-      <c r="N27" s="25" t="s">
-        <v>156</v>
+      <c r="N27" s="26" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>90</v>
@@ -3237,25 +3229,22 @@
         <v>90</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L28" s="24"/>
-      <c r="N28" s="25" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>90</v>
@@ -3276,20 +3265,17 @@
         <v>90</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="N29" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>147</v>
       </c>
@@ -3300,7 +3286,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>95</v>
@@ -3315,18 +3301,15 @@
         <v>95</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L30" s="24"/>
-      <c r="N30" s="26" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3339,7 +3322,7 @@
         <v>95</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>95</v>
@@ -3354,13 +3337,13 @@
         <v>95</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K31" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L31" s="24"/>
     </row>
@@ -3375,7 +3358,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>95</v>
@@ -3390,19 +3373,19 @@
         <v>95</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K32" s="52" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>153</v>
@@ -3411,7 +3394,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>95</v>
@@ -3426,30 +3409,30 @@
         <v>95</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J33" s="37" t="s">
         <v>101</v>
       </c>
       <c r="K33" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L33" s="58" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>95</v>
@@ -3470,24 +3453,24 @@
         <v>101</v>
       </c>
       <c r="K34" s="60" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C35" s="65" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E35" s="67" t="s">
         <v>95</v>
@@ -3508,24 +3491,24 @@
         <v>101</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C36" s="43" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E36" s="45" t="s">
         <v>95</v>
@@ -3540,13 +3523,13 @@
         <v>95</v>
       </c>
       <c r="I36" s="54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L36" s="1"/>
     </row>
@@ -3555,37 +3538,37 @@
         <v>82</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="76" t="s">
-        <v>164</v>
+      <c r="B38" s="74" t="s">
+        <v>162</v>
       </c>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
@@ -3603,97 +3586,97 @@
         <v>97</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L41" s="1"/>
     </row>
@@ -3702,74 +3685,82 @@
         <v>98</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L43" s="75" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="L43" s="73" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>195</v>
+      </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
+      <c r="B45" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="77" t="s">
+        <v>188</v>
+      </c>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -4203,19 +4194,19 @@
     <hyperlink ref="L33" r:id="rId1" location="Background" xr:uid="{8FF1186A-DDDF-487F-B203-63F5C2542527}"/>
     <hyperlink ref="L17:L26" r:id="rId2" display="Pag 49" xr:uid="{9450B7AE-107A-4F25-9626-B789C71685CE}"/>
     <hyperlink ref="L43" r:id="rId3" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
+    <hyperlink ref="C45" r:id="rId4" xr:uid="{BC1D1B0A-5F41-454A-A203-C45E76FEB7AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4408,17 +4399,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4443,18 +4444,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014EE8BE-A8C0-4845-A82B-50259865ABC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAC1B69-CC2B-4E66-A336-15D126125B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -1338,13 +1338,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1799,7 +1799,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
+      <c r="A6" s="76"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+      <c r="A7" s="76"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1846,7 +1846,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
+      <c r="A8" s="76"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="76" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1914,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="A14" s="76"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1923,7 +1923,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="76"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1932,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
+      <c r="A16" s="76"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="76"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
+      <c r="A18" s="76"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1959,7 +1959,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
+      <c r="A19" s="76"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
+      <c r="A20" s="76"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1977,7 +1977,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
+      <c r="A21" s="76"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1986,7 +1986,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
+      <c r="A22" s="76"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1995,7 +1995,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
+      <c r="A23" s="76"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +2004,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
+      <c r="A24" s="76"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
+      <c r="A25" s="76"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
+      <c r="A26" s="76"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2031,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
+      <c r="A27" s="76"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2040,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
+      <c r="A28" s="76"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2049,7 +2049,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
+      <c r="A29" s="76"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
+      <c r="A30" s="76"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -2067,7 +2067,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
+      <c r="A31" s="76"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2076,7 +2076,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
+      <c r="A32" s="76"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -2085,7 +2085,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
+      <c r="A33" s="76"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
+      <c r="A34" s="76"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
+      <c r="A35" s="76"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
+      <c r="A36" s="76"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
+      <c r="A37" s="76"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2144,8 +2144,8 @@
   <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,7 +2806,7 @@
       <c r="K17" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L17" s="76" t="s">
+      <c r="L17" s="77" t="s">
         <v>189</v>
       </c>
       <c r="N17" s="25" t="s">
@@ -2847,7 +2847,7 @@
       <c r="K18" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="76"/>
+      <c r="L18" s="77"/>
       <c r="N18" s="31" t="s">
         <v>197</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="K19" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="76"/>
+      <c r="L19" s="77"/>
       <c r="N19" s="25" t="s">
         <v>154</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="K20" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="76"/>
+      <c r="L20" s="77"/>
       <c r="N20" s="25" t="s">
         <v>164</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="K21" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L21" s="76"/>
+      <c r="L21" s="77"/>
       <c r="N21" s="25" t="s">
         <v>96</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="K22" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L22" s="76"/>
+      <c r="L22" s="77"/>
       <c r="N22" s="25" t="s">
         <v>161</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="K23" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L23" s="76"/>
+      <c r="L23" s="77"/>
       <c r="N23" s="25" t="s">
         <v>160</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="K24" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="76"/>
+      <c r="L24" s="77"/>
       <c r="N24" s="25" t="s">
         <v>155</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="K25" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L25" s="76"/>
+      <c r="L25" s="77"/>
       <c r="N25" s="25" t="s">
         <v>151</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="K26" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L26" s="76"/>
+      <c r="L26" s="77"/>
       <c r="N26" s="25" t="s">
         <v>94</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="B45" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="75" t="s">
         <v>188</v>
       </c>
       <c r="D45" s="5"/>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAC1B69-CC2B-4E66-A336-15D126125B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC15EC7E-FD9B-427F-BB06-CD9BF172EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -654,9 +654,6 @@
     <t>Pag 49</t>
   </si>
   <si>
-    <t>ETF document for AL and BA as alternative</t>
-  </si>
-  <si>
     <t>edat_lfse_04</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>R&amp;D/High tech employment-professionals</t>
+  </si>
+  <si>
+    <t>ETF document for AL and BA as alternative/cross checking</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1323,9 +1329,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,6 +1347,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1799,7 +1811,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1816,7 +1828,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="75"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1831,7 +1843,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="75"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1846,7 +1858,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="75"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1906,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="75" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1905,7 +1917,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+      <c r="A13" s="75"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1926,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="75"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1923,7 +1935,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="75"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1944,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="75"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1941,7 +1953,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="75"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +1962,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="75"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1959,7 +1971,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="75"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1968,7 +1980,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
+      <c r="A20" s="75"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1977,7 +1989,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="75"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1986,7 +1998,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
+      <c r="A22" s="75"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1995,7 +2007,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="75"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +2016,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="75"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2025,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
+      <c r="A25" s="75"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -2022,7 +2034,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
+      <c r="A26" s="75"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2043,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="75"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2052,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
+      <c r="A28" s="75"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2049,7 +2061,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
+      <c r="A29" s="75"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -2058,7 +2070,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
+      <c r="A30" s="75"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -2067,7 +2079,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="75"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2076,7 +2088,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
+      <c r="A32" s="75"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -2085,7 +2097,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
+      <c r="A33" s="75"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -2094,7 +2106,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
+      <c r="A34" s="75"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -2103,7 +2115,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
+      <c r="A35" s="75"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -2112,7 +2124,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
+      <c r="A36" s="75"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -2121,7 +2133,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
+      <c r="A37" s="75"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2144,8 +2156,8 @@
   <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2287,7 @@
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="77" t="s">
         <v>187</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -2806,7 +2818,7 @@
       <c r="K17" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="76" t="s">
         <v>189</v>
       </c>
       <c r="N17" s="25" t="s">
@@ -2847,9 +2859,9 @@
       <c r="K18" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="77"/>
+      <c r="L18" s="76"/>
       <c r="N18" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2886,7 +2898,7 @@
       <c r="K19" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="76"/>
       <c r="N19" s="25" t="s">
         <v>154</v>
       </c>
@@ -2925,7 +2937,7 @@
       <c r="K20" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="77"/>
+      <c r="L20" s="76"/>
       <c r="N20" s="25" t="s">
         <v>164</v>
       </c>
@@ -2964,7 +2976,7 @@
       <c r="K21" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L21" s="77"/>
+      <c r="L21" s="76"/>
       <c r="N21" s="25" t="s">
         <v>96</v>
       </c>
@@ -3003,7 +3015,7 @@
       <c r="K22" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L22" s="77"/>
+      <c r="L22" s="76"/>
       <c r="N22" s="25" t="s">
         <v>161</v>
       </c>
@@ -3042,7 +3054,7 @@
       <c r="K23" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L23" s="77"/>
+      <c r="L23" s="76"/>
       <c r="N23" s="25" t="s">
         <v>160</v>
       </c>
@@ -3081,7 +3093,7 @@
       <c r="K24" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="77"/>
+      <c r="L24" s="76"/>
       <c r="N24" s="25" t="s">
         <v>155</v>
       </c>
@@ -3120,7 +3132,7 @@
       <c r="K25" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L25" s="77"/>
+      <c r="L25" s="76"/>
       <c r="N25" s="25" t="s">
         <v>151</v>
       </c>
@@ -3159,7 +3171,7 @@
       <c r="K26" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="L26" s="77"/>
+      <c r="L26" s="76"/>
       <c r="N26" s="25" t="s">
         <v>94</v>
       </c>
@@ -3385,7 +3397,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>153</v>
@@ -3411,7 +3423,7 @@
       <c r="I33" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="78" t="s">
         <v>101</v>
       </c>
       <c r="K33" s="59" t="s">
@@ -3421,7 +3433,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>157</v>
       </c>
@@ -3449,14 +3461,14 @@
       <c r="I34" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="J34" s="78" t="s">
         <v>101</v>
       </c>
       <c r="K34" s="60" t="s">
         <v>165</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3487,14 +3499,14 @@
       <c r="I35" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="J35" s="70" t="s">
+      <c r="J35" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="70" t="s">
         <v>165</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3567,18 +3579,18 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3616,7 +3628,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>170</v>
@@ -3715,7 +3727,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>170</v>
@@ -3744,21 +3756,21 @@
       <c r="K43" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="L43" s="73" t="s">
+      <c r="L43" s="72" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="74" t="s">
         <v>188</v>
       </c>
       <c r="D45" s="5"/>
@@ -4202,11 +4214,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4399,27 +4412,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4444,9 +4447,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC15EC7E-FD9B-427F-BB06-CD9BF172EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC9588-C7A7-488C-AFE1-1443B7D4F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,6 @@
     <author>tc={7BFF2561-999D-4A95-A783-49486DDF8A1A}</author>
     <author>tc={6E70E1CC-E364-45FA-B399-8EAE379F95F7}</author>
     <author>tc={CA158C09-B7BE-42D4-8E0A-6078876475BA}</author>
-    <author>tc={9E064D94-29F8-4852-9D37-D8A3241C2190}</author>
   </authors>
   <commentList>
     <comment ref="N27" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
@@ -69,20 +68,12 @@
     Proxy: labour force by educational attainment</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="3" shapeId="0" xr:uid="{9E064D94-29F8-4852-9D37-D8A3241C2190}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Address mismatching in the map and list of official document</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="192">
   <si>
     <t>Macedonia</t>
   </si>
@@ -555,15 +546,6 @@
     <t>lfst_r_lfp2actrt</t>
   </si>
   <si>
-    <t>lfst_r_lfe2eedu</t>
-  </si>
-  <si>
-    <t>Employement by education level</t>
-  </si>
-  <si>
-    <t>lfst_r_lfu3pers</t>
-  </si>
-  <si>
     <t>Available bed hospitals</t>
   </si>
   <si>
@@ -585,9 +567,6 @@
     <t>Gross Fixed Capital Formation at current prices</t>
   </si>
   <si>
-    <t>Unemployement by education level</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -657,9 +636,6 @@
     <t>edat_lfse_04</t>
   </si>
   <si>
-    <t>Improve data for DE/AT/PL/UK</t>
-  </si>
-  <si>
     <t>EU Membership</t>
   </si>
   <si>
@@ -673,16 +649,13 @@
   </si>
   <si>
     <t>R&amp;D/High tech employment-professionals</t>
-  </si>
-  <si>
-    <t>ETF document for AL and BA as alternative/cross checking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,25 +716,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,14 +754,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1056,75 +1006,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF00FF"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,63 +1186,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1705,9 +1561,6 @@
   <threadedComment ref="I33" dT="2024-07-05T13:09:39.00" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
     <text>Proxy: labour force by educational attainment</text>
   </threadedComment>
-  <threadedComment ref="B43" dT="2024-07-28T10:57:48.91" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{9E064D94-29F8-4852-9D37-D8A3241C2190}">
-    <text>Address mismatching in the map and list of official document</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1756,7 +1609,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1780,7 +1633,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1794,7 +1647,7 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>80</v>
@@ -1804,14 +1657,14 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I4">
         <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1821,14 +1674,14 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I5">
         <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
+      <c r="A6" s="64"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1836,14 +1689,14 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+      <c r="A7" s="64"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1851,14 +1704,14 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I7">
         <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
+      <c r="A8" s="64"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1719,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1880,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1891,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1906,7 +1759,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="64" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1917,7 +1770,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="A13" s="64"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1926,7 +1779,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="A14" s="64"/>
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1935,7 +1788,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="64"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1944,7 +1797,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
+      <c r="A16" s="64"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1953,7 +1806,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="64"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1962,7 +1815,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
+      <c r="A18" s="64"/>
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1971,7 +1824,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
+      <c r="A19" s="64"/>
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1980,7 +1833,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
+      <c r="A20" s="64"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1989,7 +1842,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
+      <c r="A21" s="64"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1998,7 +1851,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
+      <c r="A22" s="64"/>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -2007,7 +1860,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
+      <c r="A23" s="64"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -2016,7 +1869,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
+      <c r="A24" s="64"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -2025,7 +1878,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
+      <c r="A25" s="64"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -2034,7 +1887,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
+      <c r="A26" s="64"/>
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +1896,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
+      <c r="A27" s="64"/>
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -2052,7 +1905,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
+      <c r="A28" s="64"/>
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2061,7 +1914,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
+      <c r="A29" s="64"/>
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -2070,7 +1923,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
+      <c r="A30" s="64"/>
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -2079,7 +1932,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
+      <c r="A31" s="64"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2088,7 +1941,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
+      <c r="A32" s="64"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -2097,7 +1950,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
+      <c r="A33" s="64"/>
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -2106,7 +1959,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
+      <c r="A34" s="64"/>
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -2115,7 +1968,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
+      <c r="A35" s="64"/>
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -2124,7 +1977,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
+      <c r="A36" s="64"/>
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -2133,7 +1986,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
+      <c r="A37" s="64"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2153,11 +2006,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4918A90-F1AE-4A78-BE56-1B0A62F131CD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38:K38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,7 +2018,7 @@
     <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="38" style="17" customWidth="1"/>
     <col min="3" max="11" width="14.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="4" customWidth="1"/>
     <col min="13" max="13" width="1.85546875" style="4" customWidth="1"/>
     <col min="14" max="14" width="31.28515625" style="4" customWidth="1"/>
   </cols>
@@ -2210,10 +2063,10 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>90</v>
@@ -2234,13 +2087,13 @@
         <v>90</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L2" s="24"/>
     </row>
@@ -2270,13 +2123,13 @@
         <v>90</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="14" t="s">
@@ -2287,8 +2140,8 @@
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>187</v>
+      <c r="B4" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>90</v>
@@ -2309,13 +2162,13 @@
         <v>90</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="27" t="s">
@@ -2348,13 +2201,13 @@
         <v>90</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="28" t="s">
@@ -2387,13 +2240,13 @@
         <v>90</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="29" t="s">
@@ -2426,13 +2279,13 @@
         <v>90</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="30" t="s">
@@ -2465,13 +2318,13 @@
         <v>90</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -2501,13 +2354,13 @@
         <v>90</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="14" t="s">
@@ -2540,13 +2393,13 @@
         <v>90</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="25" t="s">
@@ -2579,13 +2432,13 @@
         <v>90</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="25" t="s">
@@ -2618,13 +2471,13 @@
         <v>90</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="25" t="s">
@@ -2657,13 +2510,13 @@
         <v>90</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L13" s="1"/>
       <c r="N13" s="25" t="s">
@@ -2696,17 +2549,17 @@
         <v>90</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2735,13 +2588,13 @@
         <v>90</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -2771,13 +2624,13 @@
         <v>90</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L16" s="1"/>
       <c r="N16" s="14" t="s">
@@ -2795,7 +2648,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>101</v>
@@ -2810,16 +2663,16 @@
         <v>95</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="76" t="s">
-        <v>189</v>
+        <v>160</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>185</v>
       </c>
       <c r="N17" s="25" t="s">
         <v>146</v>
@@ -2836,7 +2689,7 @@
         <v>90</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>101</v>
@@ -2851,17 +2704,17 @@
         <v>95</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L18" s="65"/>
       <c r="N18" s="31" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2875,7 +2728,7 @@
         <v>90</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>101</v>
@@ -2890,15 +2743,15 @@
         <v>95</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L19" s="65"/>
       <c r="N19" s="25" t="s">
         <v>154</v>
       </c>
@@ -2914,7 +2767,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>101</v>
@@ -2929,17 +2782,17 @@
         <v>95</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K20" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L20" s="65"/>
       <c r="N20" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2953,7 +2806,7 @@
         <v>90</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>101</v>
@@ -2968,15 +2821,15 @@
         <v>95</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K21" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L21" s="65"/>
       <c r="N21" s="25" t="s">
         <v>96</v>
       </c>
@@ -2992,7 +2845,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>101</v>
@@ -3007,17 +2860,17 @@
         <v>95</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K22" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L22" s="65"/>
       <c r="N22" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3031,7 +2884,7 @@
         <v>90</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>101</v>
@@ -3046,17 +2899,17 @@
         <v>95</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L23" s="65"/>
       <c r="N23" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3070,7 +2923,7 @@
         <v>90</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>101</v>
@@ -3085,15 +2938,15 @@
         <v>95</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K24" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L24" s="65"/>
       <c r="N24" s="25" t="s">
         <v>155</v>
       </c>
@@ -3109,7 +2962,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>101</v>
@@ -3124,15 +2977,15 @@
         <v>95</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L25" s="65"/>
       <c r="N25" s="25" t="s">
         <v>151</v>
       </c>
@@ -3148,7 +3001,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>101</v>
@@ -3163,15 +3016,15 @@
         <v>95</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K26" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="76"/>
+        <v>160</v>
+      </c>
+      <c r="L26" s="65"/>
       <c r="N26" s="25" t="s">
         <v>94</v>
       </c>
@@ -3202,31 +3055,31 @@
         <v>90</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L27" s="24"/>
       <c r="N27" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>90</v>
@@ -3241,13 +3094,13 @@
         <v>90</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L28" s="24"/>
     </row>
@@ -3256,7 +3109,7 @@
         <v>145</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>90</v>
@@ -3277,13 +3130,13 @@
         <v>90</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -3298,7 +3151,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>95</v>
@@ -3313,13 +3166,13 @@
         <v>95</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L30" s="24"/>
     </row>
@@ -3334,7 +3187,7 @@
         <v>95</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>95</v>
@@ -3349,13 +3202,13 @@
         <v>95</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K31" s="50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L31" s="24"/>
     </row>
@@ -3370,7 +3223,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>95</v>
@@ -3385,19 +3238,19 @@
         <v>95</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K32" s="52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
-        <v>190</v>
+      <c r="A33" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>153</v>
@@ -3406,7 +3259,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>95</v>
@@ -3420,359 +3273,334 @@
       <c r="H33" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J33" s="78" t="s">
+      <c r="I33" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="37" t="s">
         <v>101</v>
       </c>
       <c r="K33" s="59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L33" s="58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="38" t="s">
+      <c r="D34" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="K34" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="I34" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="K34" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="K35" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I36" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="J36" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>163</v>
-      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
-        <v>82</v>
+      <c r="B37" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
+      <c r="B38" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L41" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="L41" s="63" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L42" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L43" s="72" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="63" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>188</v>
-      </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3784,10 +3612,10 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="7"/>
@@ -3796,170 +3624,168 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="9"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="9"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
-      <c r="D52" s="5"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="9"/>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
-      <c r="D61" s="10"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3969,7 +3795,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3980,7 +3806,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3991,7 +3817,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4004,6 +3830,7 @@
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -4026,7 +3853,6 @@
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
-      <c r="D67" s="6"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -4082,6 +3908,7 @@
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -4104,7 +3931,6 @@
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
-      <c r="D74" s="6"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -4115,25 +3941,9 @@
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
@@ -4149,13 +3959,13 @@
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D81" s="6"/>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D83" s="6"/>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
@@ -4190,12 +4000,6 @@
     </row>
     <row r="94" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L95" s="5"/>
-    </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L96" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4205,8 +4009,8 @@
   <hyperlinks>
     <hyperlink ref="L33" r:id="rId1" location="Background" xr:uid="{8FF1186A-DDDF-487F-B203-63F5C2542527}"/>
     <hyperlink ref="L17:L26" r:id="rId2" display="Pag 49" xr:uid="{9450B7AE-107A-4F25-9626-B789C71685CE}"/>
-    <hyperlink ref="L43" r:id="rId3" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
-    <hyperlink ref="C45" r:id="rId4" xr:uid="{BC1D1B0A-5F41-454A-A203-C45E76FEB7AE}"/>
+    <hyperlink ref="L41" r:id="rId3" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
+    <hyperlink ref="L43" r:id="rId4" xr:uid="{BC1D1B0A-5F41-454A-A203-C45E76FEB7AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId5"/>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC9588-C7A7-488C-AFE1-1443B7D4F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F747CB-4F10-43CC-B260-BC7AB8AE6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -40,11 +40,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7BFF2561-999D-4A95-A783-49486DDF8A1A}</author>
-    <author>tc={6E70E1CC-E364-45FA-B399-8EAE379F95F7}</author>
     <author>tc={CA158C09-B7BE-42D4-8E0A-6078876475BA}</author>
   </authors>
   <commentList>
-    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+    <comment ref="N25" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,15 +51,7 @@
     RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </t>
       </text>
     </comment>
-    <comment ref="B33" authorId="1" shapeId="0" xr:uid="{6E70E1CC-E364-45FA-B399-8EAE379F95F7}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Educational attainment statistics - Statistics Explained (europa.eu)  </t>
-      </text>
-    </comment>
-    <comment ref="I33" authorId="2" shapeId="0" xr:uid="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
+    <comment ref="I32" authorId="1" shapeId="0" xr:uid="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="189">
   <si>
     <t>Macedonia</t>
   </si>
@@ -324,9 +315,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>2000/2005</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -372,12 +360,6 @@
     <t>Distance to capital</t>
   </si>
   <si>
-    <t>2006/2010</t>
-  </si>
-  <si>
-    <t>2011/2013</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -423,12 +405,6 @@
     <t>K Financial and Insurance</t>
   </si>
   <si>
-    <t>L Real Estate</t>
-  </si>
-  <si>
-    <t>M-N Professional and Scientific Activities</t>
-  </si>
-  <si>
     <t>O-Q Public Administration, Defence, Education</t>
   </si>
   <si>
@@ -456,12 +432,6 @@
     <t>SUVGZ6</t>
   </si>
   <si>
-    <t>SUVGZ7</t>
-  </si>
-  <si>
-    <t>SUVGZ8</t>
-  </si>
-  <si>
     <t>SUVGZ9</t>
   </si>
   <si>
@@ -489,12 +459,6 @@
     <t>SNETZ6</t>
   </si>
   <si>
-    <t>SNETZ7</t>
-  </si>
-  <si>
-    <t>SNETZ8</t>
-  </si>
-  <si>
     <t>SNETZ9</t>
   </si>
   <si>
@@ -528,9 +492,6 @@
     <t>Life Expectancy at birth</t>
   </si>
   <si>
-    <t>Income Households</t>
-  </si>
-  <si>
     <t>edat_lfse_22</t>
   </si>
   <si>
@@ -546,15 +507,9 @@
     <t>lfst_r_lfp2actrt</t>
   </si>
   <si>
-    <t>Available bed hospitals</t>
-  </si>
-  <si>
     <t>Patents</t>
   </si>
   <si>
-    <t>Coast/Mountain</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -567,9 +522,6 @@
     <t>Gross Fixed Capital Formation at current prices</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>♂ World Bank</t>
   </si>
   <si>
@@ -630,9 +582,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Pag 49</t>
-  </si>
-  <si>
     <t>edat_lfse_04</t>
   </si>
   <si>
@@ -649,6 +598,39 @@
   </si>
   <si>
     <t>R&amp;D/High tech employment-professionals</t>
+  </si>
+  <si>
+    <t>2010/11</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>Average Population</t>
+  </si>
+  <si>
+    <t>SUVGZ7-8</t>
+  </si>
+  <si>
+    <t>L-M-N Real Estate, Professional and Scientific Activities</t>
+  </si>
+  <si>
+    <t>SNETZ7-8</t>
+  </si>
+  <si>
+    <t>SUVGDE</t>
+  </si>
+  <si>
+    <t>Nominal Labor Productivity</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
+    <t>Mountain</t>
   </si>
 </sst>
 </file>
@@ -717,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,26 +1180,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1540,7 +1528,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N27" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+  <threadedComment ref="N25" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
     <text xml:space="preserve">RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1549,16 +1537,7 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="B33" dT="2024-07-14T15:57:16.72" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{6E70E1CC-E364-45FA-B399-8EAE379F95F7}">
-    <text xml:space="preserve">Educational attainment statistics - Statistics Explained (europa.eu)  </text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3748739811</xltc2:checksum>
-        <xltc2:hyperlink startIndex="0" length="68" url="https://ec.europa.eu/eurostat/statistics-explained/index.php?title=Educational_attainment_statistics#Distribution_of_the_EU_population_by_educational_attainment_in_2023"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
-  <threadedComment ref="I33" dT="2024-07-05T13:09:39.00" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
+  <threadedComment ref="I32" dT="2024-07-05T13:09:39.00" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
     <text>Proxy: labour force by educational attainment</text>
   </threadedComment>
 </ThreadedComments>
@@ -1609,7 +1588,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1633,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1644,10 +1623,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>80</v>
@@ -1657,7 +1636,7 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I4">
         <v>2013</v>
@@ -1674,7 +1653,7 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="I5">
         <v>2016</v>
@@ -1689,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="I6">
         <v>2013</v>
@@ -1704,7 +1683,7 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="I7">
         <v>2013</v>
@@ -1719,7 +1698,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1733,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1744,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2006,11 +1985,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4918A90-F1AE-4A78-BE56-1B0A62F131CD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,13 +2007,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>105</v>
-      </c>
       <c r="D1" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>1</v>
@@ -2055,81 +2034,81 @@
         <v>5</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="14" t="s">
@@ -2138,1466 +2117,1447 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="N4" s="27" t="s">
-        <v>83</v>
+      <c r="N4" s="27">
+        <v>2009</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="28" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="29" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L13" s="1"/>
       <c r="N13" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="26" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>119</v>
+      <c r="A15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>160</v>
+        <v>89</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>148</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>93</v>
+      <c r="A16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="67" t="s">
+        <v>171</v>
+      </c>
       <c r="N16" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="65" t="s">
-        <v>185</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="L17" s="67"/>
       <c r="N17" s="25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" s="65"/>
+        <v>148</v>
+      </c>
+      <c r="L18" s="67"/>
       <c r="N18" s="31" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" s="65"/>
+        <v>148</v>
+      </c>
+      <c r="L19" s="67"/>
       <c r="N19" s="25" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>101</v>
+        <v>148</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K20" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="65"/>
+        <v>148</v>
+      </c>
+      <c r="L20" s="67"/>
       <c r="N20" s="25" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" s="67"/>
+      <c r="N21" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="67"/>
+      <c r="N22" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="67"/>
+      <c r="N23" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="67"/>
+      <c r="N24" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="24"/>
+      <c r="N25" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K21" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L21" s="65"/>
-      <c r="N21" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" s="65"/>
-      <c r="N22" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K23" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="65"/>
-      <c r="N23" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K24" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L24" s="65"/>
-      <c r="N24" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="65"/>
-      <c r="N25" s="25" t="s">
+      <c r="B27" s="15" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K26" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L26" s="65"/>
-      <c r="N26" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>143</v>
-      </c>
       <c r="C27" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="49" t="s">
-        <v>160</v>
+        <v>89</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="L27" s="24"/>
-      <c r="N27" s="26" t="s">
-        <v>171</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="N28" s="65"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>162</v>
+        <v>139</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="L29" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>95</v>
+      <c r="E31" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="49" t="s">
-        <v>162</v>
+        <v>94</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>150</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" s="24"/>
+        <v>150</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>152</v>
+      <c r="A32" s="61" t="s">
+        <v>172</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>162</v>
+        <v>94</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>150</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="53" t="s">
-        <v>162</v>
+        <v>94</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>150</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="K32" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="L32" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="L32" s="58" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
-        <v>186</v>
+      <c r="A33" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="L33" s="58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="J34" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="K34" s="56" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
-        <v>82</v>
+      <c r="B35" s="63" t="s">
+        <v>187</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
+      <c r="B36" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L40" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="L40" s="62" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L41" s="63" t="s">
-        <v>184</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L42" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="62" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="63" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="5"/>
+        <v>188</v>
+      </c>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
@@ -3612,10 +3572,10 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="9"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="7"/>
@@ -3624,24 +3584,24 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -3656,8 +3616,8 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -3667,7 +3627,8 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="5"/>
     </row>
@@ -3678,28 +3639,28 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="9"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
+      <c r="C53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="5"/>
@@ -3707,7 +3668,7 @@
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
@@ -3718,9 +3679,9 @@
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -3738,15 +3699,14 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
@@ -3755,26 +3715,27 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3830,7 +3791,6 @@
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
-      <c r="D65" s="6"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3842,6 +3802,7 @@
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3908,7 +3869,6 @@
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
-      <c r="D72" s="6"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3920,6 +3880,7 @@
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3941,6 +3902,14 @@
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
@@ -3959,10 +3928,10 @@
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D81" s="6"/>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D82" s="6"/>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="4:12" x14ac:dyDescent="0.25">
@@ -4001,29 +3970,31 @@
     <row r="94" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L94" s="5"/>
     </row>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L95" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L17:L26"/>
+  <mergeCells count="2">
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L16:L24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L33" r:id="rId1" location="Background" xr:uid="{8FF1186A-DDDF-487F-B203-63F5C2542527}"/>
-    <hyperlink ref="L17:L26" r:id="rId2" display="Pag 49" xr:uid="{9450B7AE-107A-4F25-9626-B789C71685CE}"/>
-    <hyperlink ref="L41" r:id="rId3" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
-    <hyperlink ref="L43" r:id="rId4" xr:uid="{BC1D1B0A-5F41-454A-A203-C45E76FEB7AE}"/>
+    <hyperlink ref="L32" r:id="rId1" location="Background" xr:uid="{8FF1186A-DDDF-487F-B203-63F5C2542527}"/>
+    <hyperlink ref="L40" r:id="rId2" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
+    <hyperlink ref="L42" r:id="rId3" xr:uid="{BC1D1B0A-5F41-454A-A203-C45E76FEB7AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4216,17 +4187,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4251,18 +4232,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F747CB-4F10-43CC-B260-BC7AB8AE6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB626853-18D2-4E22-BAF1-FDFC3A359B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -40,10 +40,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7BFF2561-999D-4A95-A783-49486DDF8A1A}</author>
-    <author>tc={CA158C09-B7BE-42D4-8E0A-6078876475BA}</author>
   </authors>
   <commentList>
-    <comment ref="N25" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+    <comment ref="N26" authorId="0" shapeId="0" xr:uid="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,20 +50,12 @@
     RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </t>
       </text>
     </comment>
-    <comment ref="I32" authorId="1" shapeId="0" xr:uid="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Proxy: labour force by educational attainment</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="191">
   <si>
     <t>Macedonia</t>
   </si>
@@ -631,13 +622,19 @@
   </si>
   <si>
     <t>Mountain</t>
+  </si>
+  <si>
+    <t>☺ ILOSTAT</t>
+  </si>
+  <si>
+    <t>☺</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,16 +678,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -699,7 +686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,18 +719,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -952,21 +933,6 @@
       <left style="medium">
         <color rgb="FF0070C0"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -997,9 +963,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1156,50 +1122,44 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1528,7 +1488,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N25" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
+  <threadedComment ref="N26" dT="2024-07-01T15:45:16.93" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{7BFF2561-999D-4A95-A783-49486DDF8A1A}">
     <text xml:space="preserve">RRG - Büro für Raumforschung, Raumplanung und Geoinformation (brrg.de)  </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1536,9 +1496,6 @@
         <xltc2:hyperlink startIndex="0" length="70" url="http://www.brrg.de/database.php?language=en"/>
       </x:ext>
     </extLst>
-  </threadedComment>
-  <threadedComment ref="I32" dT="2024-07-05T13:09:39.00" personId="{D4968EC9-A480-41EA-BA73-9962D579C6C6}" id="{CA158C09-B7BE-42D4-8E0A-6078876475BA}">
-    <text>Proxy: labour force by educational attainment</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1988,8 +1945,8 @@
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,7 +2459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>123</v>
       </c>
@@ -2537,8 +2494,8 @@
         <v>148</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="N14" s="26" t="s">
-        <v>152</v>
+      <c r="N14" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2576,8 +2533,11 @@
         <v>148</v>
       </c>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>125</v>
       </c>
@@ -2611,11 +2571,8 @@
       <c r="K16" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L16" s="67" t="s">
+      <c r="L16" s="66" t="s">
         <v>171</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2652,12 +2609,12 @@
       <c r="K17" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="N17" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="L17" s="66"/>
+      <c r="N17" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>127</v>
       </c>
@@ -2691,12 +2648,12 @@
       <c r="K18" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L18" s="67"/>
-      <c r="N18" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="66"/>
+      <c r="N18" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>128</v>
       </c>
@@ -2730,9 +2687,9 @@
       <c r="K19" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L19" s="67"/>
-      <c r="N19" s="25" t="s">
-        <v>144</v>
+      <c r="L19" s="66"/>
+      <c r="N19" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2769,9 +2726,9 @@
       <c r="K20" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="67"/>
+      <c r="L20" s="66"/>
       <c r="N20" s="25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2808,9 +2765,9 @@
       <c r="K21" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L21" s="67"/>
+      <c r="L21" s="66"/>
       <c r="N21" s="25" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2847,9 +2804,9 @@
       <c r="K22" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="67"/>
+      <c r="L22" s="66"/>
       <c r="N22" s="25" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2886,9 +2843,9 @@
       <c r="K23" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L23" s="67"/>
+      <c r="L23" s="66"/>
       <c r="N23" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2925,12 +2882,12 @@
       <c r="K24" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="67"/>
+      <c r="L24" s="66"/>
       <c r="N24" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>133</v>
       </c>
@@ -2965,11 +2922,11 @@
         <v>148</v>
       </c>
       <c r="L25" s="24"/>
-      <c r="N25" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>156</v>
       </c>
@@ -3004,6 +2961,9 @@
         <v>148</v>
       </c>
       <c r="L26" s="24"/>
+      <c r="N26" s="26" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3076,7 +3036,7 @@
         <v>148</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="N28" s="65"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3150,7 +3110,7 @@
       </c>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>142</v>
       </c>
@@ -3186,8 +3146,8 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="60" t="s">
         <v>172</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -3197,7 +3157,7 @@
         <v>94</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>94</v>
@@ -3211,14 +3171,14 @@
       <c r="H32" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="60" t="s">
-        <v>150</v>
+      <c r="I32" s="53" t="s">
+        <v>190</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="K32" s="52" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>190</v>
       </c>
       <c r="L32" s="58" t="s">
         <v>171</v>
@@ -3294,7 +3254,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>187</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -3489,7 +3449,7 @@
       <c r="K40" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="L40" s="62" t="s">
+      <c r="L40" s="61" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3530,18 +3490,18 @@
       <c r="B42" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="62" t="s">
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="61" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3549,15 +3509,15 @@
       <c r="B43" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
@@ -3998,6 +3958,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DFD4858E290079428C5BFDA89E3AFED2" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ab1f7d3ec611606aaa043637b029a9c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2543e569-627a-4d03-b3be-15316f64362a" xmlns:ns4="b210fc11-311b-43ed-b87e-a5b89f2d6a52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf709b8e585f3065e57ca2c406dca2bc" ns3:_="" ns4:_="">
     <xsd:import namespace="2543e569-627a-4d03-b3be-15316f64362a"/>
@@ -4186,15 +4155,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
   <ds:schemaRefs>
@@ -4213,6 +4173,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29E9CDEC-EEEF-4227-8ABE-AAED908B81F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4229,12 +4197,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB626853-18D2-4E22-BAF1-FDFC3A359B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE3D70-D7A6-4321-8179-F2F7F8CAFB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -1946,7 +1946,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,23 +3950,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DFD4858E290079428C5BFDA89E3AFED2" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ab1f7d3ec611606aaa043637b029a9c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2543e569-627a-4d03-b3be-15316f64362a" xmlns:ns4="b210fc11-311b-43ed-b87e-a5b89f2d6a52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf709b8e585f3065e57ca2c406dca2bc" ns3:_="" ns4:_="">
     <xsd:import namespace="2543e569-627a-4d03-b3be-15316f64362a"/>
@@ -4155,32 +4138,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29E9CDEC-EEEF-4227-8ABE-AAED908B81F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4197,4 +4172,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE3D70-D7A6-4321-8179-F2F7F8CAFB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0244413A-4A2E-4FC0-834E-0CA0D520F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="191">
   <si>
     <t>Macedonia</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Capital city</t>
   </si>
   <si>
-    <t>Distance to capital</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -628,6 +625,9 @@
   </si>
   <si>
     <t>☺</t>
+  </si>
+  <si>
+    <t>Euro</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I2">
         <v>2010</v>
@@ -1569,7 +1569,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3">
         <v>2013</v>
@@ -1580,10 +1580,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>80</v>
@@ -1593,7 +1593,7 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I4">
         <v>2013</v>
@@ -1610,7 +1610,7 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5">
         <v>2016</v>
@@ -1625,7 +1625,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6">
         <v>2013</v>
@@ -1640,7 +1640,7 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7">
         <v>2013</v>
@@ -1655,7 +1655,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1942,11 +1942,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4918A90-F1AE-4A78-BE56-1B0A62F131CD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,13 +1964,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>100</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>90</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>89</v>
@@ -2023,23 +2023,23 @@
         <v>89</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="C3" s="41" t="s">
         <v>89</v>
       </c>
@@ -2059,13 +2059,13 @@
         <v>89</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="14" t="s">
@@ -2074,10 +2074,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>89</v>
@@ -2098,13 +2098,13 @@
         <v>89</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="27">
@@ -2113,10 +2113,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>89</v>
@@ -2137,25 +2137,25 @@
         <v>89</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>89</v>
@@ -2176,25 +2176,25 @@
         <v>89</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>89</v>
@@ -2215,13 +2215,13 @@
         <v>89</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="30" t="s">
@@ -2230,10 +2230,10 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>89</v>
@@ -2254,22 +2254,22 @@
         <v>89</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>89</v>
@@ -2290,13 +2290,13 @@
         <v>89</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="14" t="s">
@@ -2305,10 +2305,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>89</v>
@@ -2329,13 +2329,13 @@
         <v>89</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="25" t="s">
@@ -2344,10 +2344,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>89</v>
@@ -2368,13 +2368,13 @@
         <v>89</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="25" t="s">
@@ -2383,11 +2383,11 @@
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="C12" s="41" t="s">
         <v>89</v>
       </c>
@@ -2407,13 +2407,13 @@
         <v>89</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="25" t="s">
@@ -2422,10 +2422,10 @@
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>89</v>
@@ -2446,13 +2446,13 @@
         <v>89</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L13" s="1"/>
       <c r="N13" s="25" t="s">
@@ -2461,10 +2461,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>89</v>
@@ -2485,22 +2485,22 @@
         <v>89</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>92</v>
@@ -2524,34 +2524,34 @@
         <v>89</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L15" s="1"/>
       <c r="N15" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>89</v>
@@ -2563,33 +2563,33 @@
         <v>94</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L16" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>89</v>
@@ -2601,34 +2601,34 @@
         <v>94</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L17" s="66"/>
       <c r="N17" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>89</v>
@@ -2640,34 +2640,34 @@
         <v>94</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L18" s="66"/>
       <c r="N18" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>89</v>
@@ -2679,34 +2679,34 @@
         <v>94</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K19" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L19" s="66"/>
       <c r="N19" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>89</v>
@@ -2718,34 +2718,34 @@
         <v>94</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K20" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L20" s="66"/>
       <c r="N20" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>89</v>
@@ -2757,34 +2757,34 @@
         <v>94</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K21" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L21" s="66"/>
       <c r="N21" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>89</v>
@@ -2796,13 +2796,13 @@
         <v>94</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K22" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L22" s="66"/>
       <c r="N22" s="25" t="s">
@@ -2811,19 +2811,19 @@
     </row>
     <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>89</v>
@@ -2835,34 +2835,34 @@
         <v>94</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K23" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" s="66"/>
       <c r="N23" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>89</v>
@@ -2874,26 +2874,26 @@
         <v>94</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K24" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L24" s="66"/>
       <c r="N24" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="C25" s="41" t="s">
         <v>89</v>
       </c>
@@ -2913,13 +2913,13 @@
         <v>89</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K25" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L25" s="24"/>
       <c r="N25" s="25" t="s">
@@ -2928,16 +2928,16 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>157</v>
-      </c>
       <c r="C26" s="41" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>89</v>
@@ -2952,25 +2952,25 @@
         <v>89</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L26" s="24"/>
       <c r="N26" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>89</v>
@@ -2991,23 +2991,23 @@
         <v>89</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>185</v>
-      </c>
       <c r="C28" s="41" t="s">
         <v>89</v>
       </c>
@@ -3027,29 +3027,29 @@
         <v>89</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>94</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="37" t="s">
         <v>94</v>
@@ -3058,34 +3058,34 @@
         <v>94</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>94</v>
       </c>
       <c r="I29" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>94</v>
@@ -3094,25 +3094,25 @@
         <v>94</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>94</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>84</v>
@@ -3121,7 +3121,7 @@
         <v>94</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>94</v>
@@ -3136,28 +3136,28 @@
         <v>94</v>
       </c>
       <c r="I31" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K31" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>94</v>
@@ -3172,30 +3172,30 @@
         <v>94</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K32" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L32" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>94</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="45" t="s">
         <v>94</v>
@@ -3210,13 +3210,13 @@
         <v>94</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J33" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K33" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L33" s="1"/>
     </row>
@@ -3225,64 +3225,64 @@
         <v>82</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L35" s="1"/>
     </row>
@@ -3291,239 +3291,233 @@
         <v>96</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="L39" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>174</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="L40" s="61" t="s">
-        <v>171</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="L41" s="5"/>
+      <c r="C41" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="61" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="61" t="s">
-        <v>171</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
+        <v>190</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="7"/>
@@ -3532,40 +3526,40 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C47" s="9"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
@@ -3575,9 +3569,8 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -3587,40 +3580,39 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
-      <c r="D51" s="5"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="5"/>
@@ -3630,7 +3622,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -3639,63 +3631,63 @@
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="9"/>
+      <c r="C58" s="1"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="C59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
-      <c r="D60" s="10"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3740,6 +3732,7 @@
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3762,7 +3755,6 @@
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
-      <c r="D66" s="6"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3818,6 +3810,7 @@
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3840,7 +3833,6 @@
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
-      <c r="D73" s="6"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3851,25 +3843,9 @@
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
@@ -3885,64 +3861,58 @@
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D82" s="6"/>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L95" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C41:K41"/>
     <mergeCell ref="L16:L24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L32" r:id="rId1" location="Background" xr:uid="{8FF1186A-DDDF-487F-B203-63F5C2542527}"/>
-    <hyperlink ref="L40" r:id="rId2" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
-    <hyperlink ref="L42" r:id="rId3" xr:uid="{BC1D1B0A-5F41-454A-A203-C45E76FEB7AE}"/>
+    <hyperlink ref="L39" r:id="rId2" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
+    <hyperlink ref="L41" r:id="rId3" xr:uid="{BC1D1B0A-5F41-454A-A203-C45E76FEB7AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId4"/>
@@ -3950,6 +3920,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DFD4858E290079428C5BFDA89E3AFED2" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ab1f7d3ec611606aaa043637b029a9c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2543e569-627a-4d03-b3be-15316f64362a" xmlns:ns4="b210fc11-311b-43ed-b87e-a5b89f2d6a52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf709b8e585f3065e57ca2c406dca2bc" ns3:_="" ns4:_="">
     <xsd:import namespace="2543e569-627a-4d03-b3be-15316f64362a"/>
@@ -4138,24 +4125,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29E9CDEC-EEEF-4227-8ABE-AAED908B81F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4172,29 +4167,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0244413A-4A2E-4FC0-834E-0CA0D520F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35556766-4455-4E08-A554-712D8E39B97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DFD7175C-8BF9-4F5D-BF57-2014F8D04D64}"/>
   </bookViews>
@@ -1945,8 +1945,8 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,30 +3913,14 @@
     <hyperlink ref="L32" r:id="rId1" location="Background" xr:uid="{8FF1186A-DDDF-487F-B203-63F5C2542527}"/>
     <hyperlink ref="L39" r:id="rId2" xr:uid="{C8E44BFD-0D56-4594-970A-72F98F04437E}"/>
     <hyperlink ref="L41" r:id="rId3" xr:uid="{BC1D1B0A-5F41-454A-A203-C45E76FEB7AE}"/>
+    <hyperlink ref="L16:L24" r:id="rId4" display="Link" xr:uid="{DE65F447-38B0-436C-8A1E-8F560BA36330}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DFD4858E290079428C5BFDA89E3AFED2" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ab1f7d3ec611606aaa043637b029a9c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2543e569-627a-4d03-b3be-15316f64362a" xmlns:ns4="b210fc11-311b-43ed-b87e-a5b89f2d6a52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf709b8e585f3065e57ca2c406dca2bc" ns3:_="" ns4:_="">
     <xsd:import namespace="2543e569-627a-4d03-b3be-15316f64362a"/>
@@ -4125,32 +4109,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2543e569-627a-4d03-b3be-15316f64362a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29E9CDEC-EEEF-4227-8ABE-AAED908B81F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4167,4 +4143,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54205307-FC15-432D-9591-8FB7528DE574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C1BA97-66F0-4A20-A172-F08D5D01D7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b210fc11-311b-43ed-b87e-a5b89f2d6a52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2543e569-627a-4d03-b3be-15316f64362a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>